--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6204" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="271">
   <si>
     <t>Team</t>
   </si>
@@ -650,6 +651,186 @@
   </si>
   <si>
     <t>1.7258</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>AEK,L L W W D L</t>
+  </si>
+  <si>
+    <t>Apollon,W L D D L D</t>
+  </si>
+  <si>
+    <t>Aris,L W L W L D</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,D L D L L D</t>
+  </si>
+  <si>
+    <t>Atromitos,D L D L D D</t>
+  </si>
+  <si>
+    <t>Giannina,W W L L D L</t>
+  </si>
+  <si>
+    <t>Lamia,D W D W D D</t>
+  </si>
+  <si>
+    <t>Larisa,L W D W D L</t>
+  </si>
+  <si>
+    <t>OFI Crete,L D W D D W</t>
+  </si>
+  <si>
+    <t>Olympiakos,W W W L W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,D W L L D D</t>
+  </si>
+  <si>
+    <t>Panetolikos,L L D L W W</t>
+  </si>
+  <si>
+    <t>PAOK,W L D W W D</t>
+  </si>
+  <si>
+    <t>Volos NFC,W D D W D D</t>
+  </si>
+  <si>
+    <t>AEK,1 1 3 3 1 0</t>
+  </si>
+  <si>
+    <t>Apollon,1 0 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Aris,0 2 1 2 0 1</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Atromitos,0 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Lamia,0 3 1 2 0 0</t>
+  </si>
+  <si>
+    <t>Larisa,1 2 1 1 0 0</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 0 2 0 1 1</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 5 3 0 1 2</t>
+  </si>
+  <si>
+    <t>Panathinaikos,2 3 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t>PAOK,3 0 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 0 1 3 1 0</t>
+  </si>
+  <si>
+    <t>AEK,3 5 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Apollon,0 2 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Aris,1 0 3 1 1 1</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 2 1 3 1 1</t>
+  </si>
+  <si>
+    <t>Atromitos,0 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Giannina,0 0 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Lamia,0 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Larisa,3 0 1 0 0 1</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 1 2 0 0</t>
+  </si>
+  <si>
+    <t>Panathinaikos,2 0 3 2 1 0</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 3 1 3 0 0</t>
+  </si>
+  <si>
+    <t>PAOK,1 3 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Volos NFC,0 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t>AEK,4 6 4 4 2 2</t>
+  </si>
+  <si>
+    <t>Apollon,1 2 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Aris,1 2 4 3 1 2</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,4 2 2 4 1 2</t>
+  </si>
+  <si>
+    <t>Atromitos,0 1 2 1 2 0</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 3 3 2 1</t>
+  </si>
+  <si>
+    <t>Lamia,0 3 2 3 0 0</t>
+  </si>
+  <si>
+    <t>Larisa,4 2 2 1 0 1</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 0 3 0 2 1</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 6 4 2 1 2</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 3 4 3 2 0</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 3 2 4 1 1</t>
+  </si>
+  <si>
+    <t>PAOK,4 3 2 2 1 0</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 0 2 4 2 0</t>
   </si>
 </sst>
 </file>
@@ -19566,4 +19747,270 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -1065,130 +1065,130 @@
     <t>Volos NFC,D W D D W L</t>
   </si>
   <si>
-    <t>AEK,1 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 2 0 1 1</t>
-  </si>
-  <si>
-    <t>Atromitos,1 0 1 0 3 1</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Lamia,1 2 0 0 0 1</t>
-  </si>
-  <si>
-    <t>Larisa,1 1 0 0 1 2</t>
-  </si>
-  <si>
-    <t>OFI Crete,2 0 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 2 1 0 1 4</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 0 2 0 0 1</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 1 1 1 1 2</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 2 2 0 0</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 3 1 0 3 0</t>
-  </si>
-  <si>
-    <t>AEK,1 2 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Apollon,2 1 0 1 0 1</t>
-  </si>
-  <si>
-    <t>Aris,1 1 1 2 0 0</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 1 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Atromitos,1 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Giannina,0 2 2 1 1 2</t>
-  </si>
-  <si>
-    <t>Lamia,1 1 0 0 2 0</t>
-  </si>
-  <si>
-    <t>Larisa,1 0 0 1 3 0</t>
-  </si>
-  <si>
-    <t>OFI Crete,1 0 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 0 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 0 2 1 0 4</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 3 0 0 3 2</t>
-  </si>
-  <si>
-    <t>PAOK,0 0 1 0 1 1</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 1 1 0 1 1</t>
-  </si>
-  <si>
-    <t>AEK,2 2 3 1 2 0</t>
-  </si>
-  <si>
-    <t>Apollon,2 2 0 1 0 1</t>
-  </si>
-  <si>
-    <t>Aris,1 2 2 2 0 0</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 2 4 0 2 1</t>
-  </si>
-  <si>
-    <t>Atromitos,2 1 2 0 4 1</t>
-  </si>
-  <si>
-    <t>Giannina,1 3 3 2 1 2</t>
-  </si>
-  <si>
-    <t>Lamia,2 3 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Larisa,2 1 0 1 4 2</t>
-  </si>
-  <si>
-    <t>OFI Crete,3 0 2 1 2 4</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 2 2 0 1 5</t>
-  </si>
-  <si>
-    <t>Panathinaikos,2 0 4 1 0 5</t>
-  </si>
-  <si>
-    <t>Panetolikos,2 4 1 1 4 4</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 3 2 1 1</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 4 2 0 4 1</t>
+    <t>AEK,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Apollon,0 1 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 1 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 2 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 0 1 0 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 1 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Lamia,1 2 0 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Larisa,1 1 0 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 0 1 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 2 1 0 1 4,(9)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 0 2 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 1 1 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>PAOK,1 0 2 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 3 1 0 3 0,(8)</t>
+  </si>
+  <si>
+    <t>AEK,1 2 2 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Apollon,2 1 0 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Aris,1 1 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 1 2 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 1 1 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Giannina,0 2 2 1 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Lamia,1 1 0 0 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Larisa,1 0 0 1 3 0,(5)</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 0 1 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 0 1 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 0 2 1 0 4,(8)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 3 0 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>PAOK,0 0 1 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 1 1 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>AEK,2 2 3 1 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Apollon,2 2 0 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Aris,1 2 2 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 2 4 0 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 1 2 0 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Giannina,1 3 3 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Lamia,2 3 0 0 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Larisa,2 1 0 1 4 2,(10)</t>
+  </si>
+  <si>
+    <t>OFI Crete,3 0 2 1 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 2 2 0 1 5,(11)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,2 0 4 1 0 5,(12)</t>
+  </si>
+  <si>
+    <t>Panetolikos,2 4 1 1 4 4,(16)</t>
+  </si>
+  <si>
+    <t>PAOK,1 0 3 2 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 4 2 0 4 1,(13)</t>
   </si>
   <si>
     <t>AEK,Panathinaikos Olympiakos PAOK Panathinaikos Asteras Tripolis Aris</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -684,298 +684,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,D W L W W W</t>
-  </si>
-  <si>
-    <t>Apollon,L L D D L W</t>
-  </si>
-  <si>
-    <t>Aris,L W W D W W</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,L D L L W W</t>
-  </si>
-  <si>
-    <t>Atromitos,L L L D L L</t>
-  </si>
-  <si>
-    <t>Giannina,W D D D L L</t>
-  </si>
-  <si>
-    <t>Ionikos,W D D L L W</t>
-  </si>
-  <si>
-    <t>Lamia,L L D W L D</t>
-  </si>
-  <si>
-    <t>OFI Crete,D D D L W D</t>
-  </si>
-  <si>
-    <t>Olympiakos,W W W D W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,L L W D W L</t>
-  </si>
-  <si>
-    <t>Panetolikos,W L D L L L</t>
-  </si>
-  <si>
-    <t>PAOK,W W W W D L</t>
-  </si>
-  <si>
-    <t>Volos NFC,W W L W D L</t>
-  </si>
-  <si>
-    <t>AEK,3 1 0 3 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Apollon,1 1 0 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 3 0 1 5,(10)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 0 0 1 1 2,(4)</t>
-  </si>
-  <si>
-    <t>Atromitos,1 0 1 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Giannina,1 0 1 1 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Ionikos,1 0 0 1 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Lamia,1 0 2 2 0 0,(5)</t>
-  </si>
-  <si>
-    <t>OFI Crete,3 0 1 1 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Olympiakos,2 4 2 0 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 0 5 0 4 1,(10)</t>
-  </si>
-  <si>
-    <t>Panetolikos,2 1 2 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>PAOK,1 2 2 3 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 3 1 2 4 1,(14)</t>
-  </si>
-  <si>
-    <t>AEK,3 0 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Apollon,3 4 0 0 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Aris,1 0 1 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 0 2 2 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,2 3 3 1 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Giannina,0 0 1 1 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 0 0 2 4 0,(6)</t>
-  </si>
-  <si>
-    <t>Lamia,2 1 2 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>OFI Crete,3 0 1 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 1 0 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 1 1 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 2 2 3 2 5,(15)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 0 1 4 2,(8)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 0 5 1 4 3,(14)</t>
-  </si>
-  <si>
-    <t>AEK,6 1 2 4 3 4,(20)</t>
-  </si>
-  <si>
-    <t>Apollon,4 5 0 0 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Aris,1 1 4 0 1 6,(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 0 2 3 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Atromitos,3 3 4 2 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Giannina,1 0 2 2 3 1,(9)</t>
-  </si>
-  <si>
-    <t>Ionikos,1 0 0 3 5 2,(11)</t>
-  </si>
-  <si>
-    <t>Lamia,3 1 4 3 1 0,(12)</t>
-  </si>
-  <si>
-    <t>OFI Crete,6 0 2 4 3 0,(15)</t>
-  </si>
-  <si>
-    <t>Olympiakos,3 5 2 0 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 1 6 0 5 3,(16)</t>
-  </si>
-  <si>
-    <t>Panetolikos,3 3 4 4 3 6,(23)</t>
-  </si>
-  <si>
-    <t>PAOK,1 3 2 4 8 3,(21)</t>
-  </si>
-  <si>
-    <t>Volos NFC,4 3 6 3 8 4,(28)</t>
-  </si>
-  <si>
-    <t>AEK,3-3 1-0 2-0 1-3 3-0 1-3</t>
-  </si>
-  <si>
-    <t>Apollon,1-3 4-1 0-0 0-0 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Aris,1-0 1-0 1-3 0-0 0-1 5-1</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0-1 0-0 0-2 2-1 0-1 2-1</t>
-  </si>
-  <si>
-    <t>Atromitos,1-2 3-0 1-3 1-1 3-0 0-2</t>
-  </si>
-  <si>
-    <t>Giannina,1-0 0-0 1-1 1-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Ionikos,1-0 0-0 0-0 1-2 4-1 0-2</t>
-  </si>
-  <si>
-    <t>Lamia,1-2 1-0 2-2 1-2 0-1 0-0</t>
-  </si>
-  <si>
-    <t>OFI Crete,3-3 0-0 1-1 1-3 1-2 0-0</t>
-  </si>
-  <si>
-    <t>Olympiakos,1-2 4-1 0-2 0-0 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1-0 1-0 5-1 0-0 4-1 2-1</t>
-  </si>
-  <si>
-    <t>Panetolikos,1-2 1-2 2-2 1-3 1-2 5-1</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 1-2 2-0 1-3 4-4 2-1</t>
-  </si>
-  <si>
-    <t>Volos NFC,1-3 3-0 5-1 2-1 4-4 1-3</t>
-  </si>
-  <si>
-    <t>AEK,0 1 -2 2 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Apollon,-2 -3 0 0 -1 1,(-5)</t>
-  </si>
-  <si>
-    <t>Aris,-1 1 2 0 1 4,(7)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,-1 0 -2 -1 1 1,(-2)</t>
-  </si>
-  <si>
-    <t>Atromitos,-1 -3 -2 0 -3 -2,(-11)</t>
-  </si>
-  <si>
-    <t>Giannina,1 0 0 0 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Ionikos,1 0 0 -1 -3 2,(-1)</t>
-  </si>
-  <si>
-    <t>Lamia,-1 -1 0 1 -1 0,(-2)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 0 -2 1 0,(-1)</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 3 2 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,-1 -1 4 0 3 -1,(4)</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 -1 0 -2 -1 -4,(-7)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 2 2 0 -1,(5)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 3 -4 1 0 -2,(0)</t>
-  </si>
-  <si>
-    <t>AEK,OFI Crete(10) Lamia(12) PAOK(4) Panetolikos(13) Atromitos(14) Volos NFC(5)</t>
-  </si>
-  <si>
-    <t>Apollon,Volos NFC(5) Olympiakos(1) Ionikos(9) Aris(3) Asteras Tripolis(8) Giannina(7)</t>
-  </si>
-  <si>
-    <t>Aris,Ionikos(9) Panathinaikos(6) Atromitos(14) Apollon(11) Lamia(12) Panetolikos(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,PAOK(4) OFI Crete(10) Olympiakos(1) Volos NFC(5) Apollon(11) Panathinaikos(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,Panetolikos(13) Volos NFC(5) Aris(3) Giannina(7) AEK(2) Ionikos(9)</t>
-  </si>
-  <si>
-    <t>Giannina,Panathinaikos(6) Ionikos(9) OFI Crete(10) Atromitos(14) Olympiakos(1) Apollon(11)</t>
-  </si>
-  <si>
-    <t>Ionikos,Aris(3) Giannina(7) Apollon(11) Lamia(12) Panathinaikos(6) Atromitos(14)</t>
-  </si>
-  <si>
-    <t>Lamia,Olympiakos(1) AEK(2) Panetolikos(13) Ionikos(9) Aris(3) OFI Crete(10)</t>
-  </si>
-  <si>
-    <t>OFI Crete,AEK(2) Asteras Tripolis(8) Giannina(7) PAOK(4) Panetolikos(13) Lamia(12)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Lamia(12) Apollon(11) Asteras Tripolis(8) Panathinaikos(6) Giannina(7) PAOK(4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Giannina(7) Aris(3) Volos NFC(5) Olympiakos(1) Ionikos(9) Asteras Tripolis(8)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Atromitos(14) PAOK(4) Lamia(12) AEK(2) OFI Crete(10) Aris(3)</t>
-  </si>
-  <si>
-    <t>PAOK,Asteras Tripolis(8) Panetolikos(13) AEK(2) OFI Crete(10) Volos NFC(5) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Apollon(11) Atromitos(14) Panathinaikos(6) Asteras Tripolis(8) PAOK(4) AEK(2)</t>
+    <t>AEK,W D W L W W W</t>
+  </si>
+  <si>
+    <t>Apollon,L L L D D L W</t>
+  </si>
+  <si>
+    <t>Aris,D L W W D W W</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,D L D L L W W</t>
+  </si>
+  <si>
+    <t>Atromitos,D L L L D L L</t>
+  </si>
+  <si>
+    <t>Giannina,W W D D D L L</t>
+  </si>
+  <si>
+    <t>Ionikos,L W D D L L W</t>
+  </si>
+  <si>
+    <t>Lamia,L L L D W L D</t>
+  </si>
+  <si>
+    <t>OFI Crete,D D D D L W D</t>
+  </si>
+  <si>
+    <t>Olympiakos,D W W W D W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,W L L W D W L</t>
+  </si>
+  <si>
+    <t>Panetolikos,D W L D L L L</t>
+  </si>
+  <si>
+    <t>PAOK,L W W W W D L</t>
+  </si>
+  <si>
+    <t>Volos NFC,W W W L W D L</t>
+  </si>
+  <si>
+    <t>AEK,3 3 1 0 3 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Apollon,0 1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Aris,0 0 1 3 0 1 5,(10)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 0 0 0 1 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 1 0 0 1 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Lamia,1 1 0 2 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 3 0 1 1 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 2 4 2 0 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 0 0 5 0 4 1,(14)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 2 1 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>PAOK,0 1 2 2 3 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 3 3 1 2 4 1,(16)</t>
+  </si>
+  <si>
+    <t>AEK,0 3 0 2 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Apollon,4 3 4 0 0 1 0,(12)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 0 1 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 0 2 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 2 3 3 1 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Giannina,0 0 0 1 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,3 0 0 0 2 4 0,(9)</t>
+  </si>
+  <si>
+    <t>Lamia,2 2 1 2 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 3 0 1 3 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 1 0 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,0 1 1 1 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 1 2 2 3 2 5,(15)</t>
+  </si>
+  <si>
+    <t>PAOK,1 0 1 0 1 4 2,(9)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 1 0 5 1 4 3,(15)</t>
+  </si>
+  <si>
+    <t>AEK,3 6 1 2 4 3 4,(23)</t>
+  </si>
+  <si>
+    <t>Apollon,4 4 5 0 0 1 1,(15)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 1 4 0 1 6,(13)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 0 2 3 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 3 3 4 2 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 2 2 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Ionikos,3 1 0 0 3 5 2,(14)</t>
+  </si>
+  <si>
+    <t>Lamia,3 3 1 4 3 1 0,(15)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 6 0 2 4 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 3 5 2 0 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 1 1 6 0 5 3,(20)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 3 3 4 4 3 6,(23)</t>
+  </si>
+  <si>
+    <t>PAOK,1 1 3 2 4 8 3,(22)</t>
+  </si>
+  <si>
+    <t>Volos NFC,3 4 3 6 3 8 4,(31)</t>
+  </si>
+  <si>
+    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3</t>
+  </si>
+  <si>
+    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1</t>
+  </si>
+  <si>
+    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2</t>
+  </si>
+  <si>
+    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2</t>
+  </si>
+  <si>
+    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0</t>
+  </si>
+  <si>
+    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0</t>
+  </si>
+  <si>
+    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1</t>
+  </si>
+  <si>
+    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1</t>
+  </si>
+  <si>
+    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1</t>
+  </si>
+  <si>
+    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3</t>
+  </si>
+  <si>
+    <t>AEK,3 0 1 -2 2 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Apollon,-4 -2 -3 0 0 -1 1,(-9)</t>
+  </si>
+  <si>
+    <t>Aris,0 -1 1 2 0 1 4,(7)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1,(-2)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 -1 -3 -2 0 -3 -2,(-11)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 0 0 -1 -1,(0)</t>
+  </si>
+  <si>
+    <t>Ionikos,-3 1 0 0 -1 -3 2,(-4)</t>
+  </si>
+  <si>
+    <t>Lamia,-1 -1 -1 0 1 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 0 0 0 -2 1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 3 2 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 -1 -1 4 0 3 -1,(8)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 1 -1 0 -2 -1 -4,(-7)</t>
+  </si>
+  <si>
+    <t>PAOK,-1 1 1 2 2 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 2 3 -4 1 0 -2,(1)</t>
+  </si>
+  <si>
+    <t>AEK,Ionikos(9) OFI Crete(10) Lamia(12) PAOK(4) Panetolikos(13) Atromitos(14) Volos NFC(5)</t>
+  </si>
+  <si>
+    <t>Apollon,Panathinaikos(6) Volos NFC(5) Olympiakos(1) Ionikos(9) Aris(3) Asteras Tripolis(8) Giannina(7)</t>
+  </si>
+  <si>
+    <t>Aris,OFI Crete(10) Ionikos(9) Panathinaikos(6) Atromitos(14) Apollon(11) Lamia(12) Panetolikos(13)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,Panetolikos(13) PAOK(4) OFI Crete(10) Olympiakos(1) Volos NFC(5) Apollon(11) Panathinaikos(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,Olympiakos(1) Panetolikos(13) Volos NFC(5) Aris(3) Giannina(7) AEK(2) Ionikos(9)</t>
+  </si>
+  <si>
+    <t>Giannina,PAOK(4) Panathinaikos(6) Ionikos(9) OFI Crete(10) Atromitos(14) Olympiakos(1) Apollon(11)</t>
+  </si>
+  <si>
+    <t>Ionikos,AEK(2) Aris(3) Giannina(7) Apollon(11) Lamia(12) Panathinaikos(6) Atromitos(14)</t>
+  </si>
+  <si>
+    <t>Lamia,Volos NFC(5) Olympiakos(1) AEK(2) Panetolikos(13) Ionikos(9) Aris(3) OFI Crete(10)</t>
+  </si>
+  <si>
+    <t>OFI Crete,Aris(3) AEK(2) Asteras Tripolis(8) Giannina(7) PAOK(4) Panetolikos(13) Lamia(12)</t>
+  </si>
+  <si>
+    <t>Olympiakos,Atromitos(14) Lamia(12) Apollon(11) Asteras Tripolis(8) Panathinaikos(6) Giannina(7) PAOK(4)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,Apollon(11) Giannina(7) Aris(3) Volos NFC(5) Olympiakos(1) Ionikos(9) Asteras Tripolis(8)</t>
+  </si>
+  <si>
+    <t>Panetolikos,Asteras Tripolis(8) Atromitos(14) PAOK(4) Lamia(12) AEK(2) OFI Crete(10) Aris(3)</t>
+  </si>
+  <si>
+    <t>PAOK,Giannina(7) Asteras Tripolis(8) Panetolikos(13) AEK(2) OFI Crete(10) Volos NFC(5) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Lamia(12) Apollon(11) Atromitos(14) Panathinaikos(6) Asteras Tripolis(8) PAOK(4) AEK(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -684,298 +684,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,W D W L W W W</t>
-  </si>
-  <si>
-    <t>Apollon,L L L D D L W</t>
-  </si>
-  <si>
-    <t>Aris,D L W W D W W</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,D L D L L W W</t>
-  </si>
-  <si>
-    <t>Atromitos,D L L L D L L</t>
-  </si>
-  <si>
-    <t>Giannina,W W D D D L L</t>
-  </si>
-  <si>
-    <t>Ionikos,L W D D L L W</t>
-  </si>
-  <si>
-    <t>Lamia,L L L D W L D</t>
-  </si>
-  <si>
-    <t>OFI Crete,D D D D L W D</t>
-  </si>
-  <si>
-    <t>Olympiakos,D W W W D W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,W L L W D W L</t>
-  </si>
-  <si>
-    <t>Panetolikos,D W L D L L L</t>
-  </si>
-  <si>
-    <t>PAOK,L W W W W D L</t>
-  </si>
-  <si>
-    <t>Volos NFC,W W W L W D L</t>
-  </si>
-  <si>
-    <t>AEK,3 3 1 0 3 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 1 0 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 3 0 1 5,(10)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 0 0 0 1 1 2,(4)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 1 0 1 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 1 0 0 1 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Lamia,1 1 0 2 2 0 0,(6)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 1 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 2 4 2 0 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 0 0 5 0 4 1,(14)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 2 1 2 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 2 2 3 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 3 3 1 2 4 1,(16)</t>
-  </si>
-  <si>
-    <t>AEK,0 3 0 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Apollon,4 3 4 0 0 1 0,(12)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 0 1 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 2 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 2 3 3 1 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Giannina,0 0 0 1 1 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 0 0 0 2 4 0,(9)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 1 2 1 1 0,(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 1 0 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 1 1 1 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 2 2 3 2 5,(15)</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 1 0 1 4 2,(9)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 1 0 5 1 4 3,(15)</t>
-  </si>
-  <si>
-    <t>AEK,3 6 1 2 4 3 4,(23)</t>
-  </si>
-  <si>
-    <t>Apollon,4 4 5 0 0 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 4 0 1 6,(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 3 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 3 3 4 2 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 2 2 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 1 0 0 3 5 2,(14)</t>
-  </si>
-  <si>
-    <t>Lamia,3 3 1 4 3 1 0,(15)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 6 0 2 4 3 0,(15)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 3 5 2 0 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 1 1 6 0 5 3,(20)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 3 3 4 4 3 6,(23)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 3 2 4 8 3,(22)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 4 3 6 3 8 4,(31)</t>
-  </si>
-  <si>
-    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3</t>
-  </si>
-  <si>
-    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1</t>
-  </si>
-  <si>
-    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2</t>
-  </si>
-  <si>
-    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2</t>
-  </si>
-  <si>
-    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0</t>
-  </si>
-  <si>
-    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0</t>
-  </si>
-  <si>
-    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1</t>
-  </si>
-  <si>
-    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1</t>
-  </si>
-  <si>
-    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3</t>
-  </si>
-  <si>
-    <t>AEK,3 0 1 -2 2 3 2,(9)</t>
-  </si>
-  <si>
-    <t>Apollon,-4 -2 -3 0 0 -1 1,(-9)</t>
-  </si>
-  <si>
-    <t>Aris,0 -1 1 2 0 1 4,(7)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1,(-2)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 -1 -3 -2 0 -3 -2,(-11)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 0 0 -1 -1,(0)</t>
-  </si>
-  <si>
-    <t>Ionikos,-3 1 0 0 -1 -3 2,(-4)</t>
-  </si>
-  <si>
-    <t>Lamia,-1 -1 -1 0 1 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 0 0 -2 1 0,(-1)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 3 2 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 -1 -1 4 0 3 -1,(8)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 -1 0 -2 -1 -4,(-7)</t>
-  </si>
-  <si>
-    <t>PAOK,-1 1 1 2 2 0 -1,(4)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 2 3 -4 1 0 -2,(1)</t>
-  </si>
-  <si>
-    <t>AEK,Ionikos(9) OFI Crete(10) Lamia(12) PAOK(4) Panetolikos(13) Atromitos(14) Volos NFC(5)</t>
-  </si>
-  <si>
-    <t>Apollon,Panathinaikos(6) Volos NFC(5) Olympiakos(1) Ionikos(9) Aris(3) Asteras Tripolis(8) Giannina(7)</t>
-  </si>
-  <si>
-    <t>Aris,OFI Crete(10) Ionikos(9) Panathinaikos(6) Atromitos(14) Apollon(11) Lamia(12) Panetolikos(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,Panetolikos(13) PAOK(4) OFI Crete(10) Olympiakos(1) Volos NFC(5) Apollon(11) Panathinaikos(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,Olympiakos(1) Panetolikos(13) Volos NFC(5) Aris(3) Giannina(7) AEK(2) Ionikos(9)</t>
-  </si>
-  <si>
-    <t>Giannina,PAOK(4) Panathinaikos(6) Ionikos(9) OFI Crete(10) Atromitos(14) Olympiakos(1) Apollon(11)</t>
-  </si>
-  <si>
-    <t>Ionikos,AEK(2) Aris(3) Giannina(7) Apollon(11) Lamia(12) Panathinaikos(6) Atromitos(14)</t>
-  </si>
-  <si>
-    <t>Lamia,Volos NFC(5) Olympiakos(1) AEK(2) Panetolikos(13) Ionikos(9) Aris(3) OFI Crete(10)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Aris(3) AEK(2) Asteras Tripolis(8) Giannina(7) PAOK(4) Panetolikos(13) Lamia(12)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Atromitos(14) Lamia(12) Apollon(11) Asteras Tripolis(8) Panathinaikos(6) Giannina(7) PAOK(4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Apollon(11) Giannina(7) Aris(3) Volos NFC(5) Olympiakos(1) Ionikos(9) Asteras Tripolis(8)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Asteras Tripolis(8) Atromitos(14) PAOK(4) Lamia(12) AEK(2) OFI Crete(10) Aris(3)</t>
-  </si>
-  <si>
-    <t>PAOK,Giannina(7) Asteras Tripolis(8) Panetolikos(13) AEK(2) OFI Crete(10) Volos NFC(5) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Lamia(12) Apollon(11) Atromitos(14) Panathinaikos(6) Asteras Tripolis(8) PAOK(4) AEK(2)</t>
+    <t>AEK,D W L W W W</t>
+  </si>
+  <si>
+    <t>Apollon,L L D D L W</t>
+  </si>
+  <si>
+    <t>Aris,L W W D W W</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,L D L L W W</t>
+  </si>
+  <si>
+    <t>Atromitos,L L L D L L</t>
+  </si>
+  <si>
+    <t>Giannina,W D D D L L</t>
+  </si>
+  <si>
+    <t>Ionikos,W D D L L W</t>
+  </si>
+  <si>
+    <t>Lamia,L L D W L D</t>
+  </si>
+  <si>
+    <t>OFI Crete,D D D L W D</t>
+  </si>
+  <si>
+    <t>Olympiakos,W W W D W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,L L W D W L</t>
+  </si>
+  <si>
+    <t>Panetolikos,W L D L L L</t>
+  </si>
+  <si>
+    <t>PAOK,W W W W D L</t>
+  </si>
+  <si>
+    <t>Volos NFC,W W L W D L</t>
+  </si>
+  <si>
+    <t>AEK,3 1 0 3 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Apollon,1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 3 0 1 5,(10)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 0 0 1 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Giannina,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 0 0 1 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Lamia,1 0 2 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>OFI Crete,3 0 1 1 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 4 2 0 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,0 0 5 0 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Panetolikos,2 1 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>PAOK,1 2 2 3 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Volos NFC,3 3 1 2 4 1,(14)</t>
+  </si>
+  <si>
+    <t>AEK,3 0 2 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Apollon,3 4 0 0 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Aris,1 0 1 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 0 2 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 3 3 1 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Giannina,0 0 1 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 0 0 2 4 0,(6)</t>
+  </si>
+  <si>
+    <t>Lamia,2 1 2 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>OFI Crete,3 0 1 3 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 1 0 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 1 1 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 2 2 3 2 5,(15)</t>
+  </si>
+  <si>
+    <t>PAOK,0 1 0 1 4 2,(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 0 5 1 4 3,(14)</t>
+  </si>
+  <si>
+    <t>AEK,6 1 2 4 3 4,(20)</t>
+  </si>
+  <si>
+    <t>Apollon,4 5 0 0 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Aris,1 1 4 0 1 6,(13)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 0 2 3 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Atromitos,3 3 4 2 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Giannina,1 0 2 2 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 0 0 3 5 2,(11)</t>
+  </si>
+  <si>
+    <t>Lamia,3 1 4 3 1 0,(12)</t>
+  </si>
+  <si>
+    <t>OFI Crete,6 0 2 4 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Olympiakos,3 5 2 0 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 1 6 0 5 3,(16)</t>
+  </si>
+  <si>
+    <t>Panetolikos,3 3 4 4 3 6,(23)</t>
+  </si>
+  <si>
+    <t>PAOK,1 3 2 4 8 3,(21)</t>
+  </si>
+  <si>
+    <t>Volos NFC,4 3 6 3 8 4,(28)</t>
+  </si>
+  <si>
+    <t>AEK,3-3 1-0 2-0 1-3 3-0 1-3</t>
+  </si>
+  <si>
+    <t>Apollon,1-3 4-1 0-0 0-0 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Aris,1-0 1-0 1-3 0-0 0-1 5-1</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0-1 0-0 0-2 2-1 0-1 2-1</t>
+  </si>
+  <si>
+    <t>Atromitos,1-2 3-0 1-3 1-1 3-0 0-2</t>
+  </si>
+  <si>
+    <t>Giannina,1-0 0-0 1-1 1-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Ionikos,1-0 0-0 0-0 1-2 4-1 0-2</t>
+  </si>
+  <si>
+    <t>Lamia,1-2 1-0 2-2 1-2 0-1 0-0</t>
+  </si>
+  <si>
+    <t>OFI Crete,3-3 0-0 1-1 1-3 1-2 0-0</t>
+  </si>
+  <si>
+    <t>Olympiakos,1-2 4-1 0-2 0-0 1-2 2-1</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1-0 1-0 5-1 0-0 4-1 2-1</t>
+  </si>
+  <si>
+    <t>Panetolikos,1-2 1-2 2-2 1-3 1-2 5-1</t>
+  </si>
+  <si>
+    <t>PAOK,0-1 1-2 2-0 1-3 4-4 2-1</t>
+  </si>
+  <si>
+    <t>Volos NFC,1-3 3-0 5-1 2-1 4-4 1-3</t>
+  </si>
+  <si>
+    <t>AEK,0 1 -2 2 3 2,(6)</t>
+  </si>
+  <si>
+    <t>Apollon,-2 -3 0 0 -1 1,(-5)</t>
+  </si>
+  <si>
+    <t>Aris,-1 1 2 0 1 4,(7)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,-1 0 -2 -1 1 1,(-2)</t>
+  </si>
+  <si>
+    <t>Atromitos,-1 -3 -2 0 -3 -2,(-11)</t>
+  </si>
+  <si>
+    <t>Giannina,1 0 0 0 -1 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 0 0 -1 -3 2,(-1)</t>
+  </si>
+  <si>
+    <t>Lamia,-1 -1 0 1 -1 0,(-2)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 0 0 -2 1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 3 2 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,-1 -1 4 0 3 -1,(4)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 -1 0 -2 -1 -4,(-7)</t>
+  </si>
+  <si>
+    <t>PAOK,1 1 2 2 0 -1,(5)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 3 -4 1 0 -2,(0)</t>
+  </si>
+  <si>
+    <t>AEK,OFI Crete(10) Lamia(12) PAOK(4) Panetolikos(13) Atromitos(14) Volos NFC(5)</t>
+  </si>
+  <si>
+    <t>Apollon,Volos NFC(5) Olympiakos(1) Ionikos(9) Aris(3) Asteras Tripolis(8) Giannina(7)</t>
+  </si>
+  <si>
+    <t>Aris,Ionikos(9) Panathinaikos(6) Atromitos(14) Apollon(11) Lamia(12) Panetolikos(13)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,PAOK(4) OFI Crete(10) Olympiakos(1) Volos NFC(5) Apollon(11) Panathinaikos(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,Panetolikos(13) Volos NFC(5) Aris(3) Giannina(7) AEK(2) Ionikos(9)</t>
+  </si>
+  <si>
+    <t>Giannina,Panathinaikos(6) Ionikos(9) OFI Crete(10) Atromitos(14) Olympiakos(1) Apollon(11)</t>
+  </si>
+  <si>
+    <t>Ionikos,Aris(3) Giannina(7) Apollon(11) Lamia(12) Panathinaikos(6) Atromitos(14)</t>
+  </si>
+  <si>
+    <t>Lamia,Olympiakos(1) AEK(2) Panetolikos(13) Ionikos(9) Aris(3) OFI Crete(10)</t>
+  </si>
+  <si>
+    <t>OFI Crete,AEK(2) Asteras Tripolis(8) Giannina(7) PAOK(4) Panetolikos(13) Lamia(12)</t>
+  </si>
+  <si>
+    <t>Olympiakos,Lamia(12) Apollon(11) Asteras Tripolis(8) Panathinaikos(6) Giannina(7) PAOK(4)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,Giannina(7) Aris(3) Volos NFC(5) Olympiakos(1) Ionikos(9) Asteras Tripolis(8)</t>
+  </si>
+  <si>
+    <t>Panetolikos,Atromitos(14) PAOK(4) Lamia(12) AEK(2) OFI Crete(10) Aris(3)</t>
+  </si>
+  <si>
+    <t>PAOK,Asteras Tripolis(8) Panetolikos(13) AEK(2) OFI Crete(10) Volos NFC(5) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Apollon(11) Atromitos(14) Panathinaikos(6) Asteras Tripolis(8) PAOK(4) AEK(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -735,298 +735,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,W D W L W W W W D</t>
-  </si>
-  <si>
-    <t>Apollon,L L L D D L W L D</t>
-  </si>
-  <si>
-    <t>Aris,D L W W D W W L W</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,D L D L L W W D L</t>
-  </si>
-  <si>
-    <t>Atromitos,D L L L D L L D L</t>
-  </si>
-  <si>
-    <t>Giannina,W W D D D L L D W</t>
-  </si>
-  <si>
-    <t>Ionikos,L W D D L L W D L</t>
-  </si>
-  <si>
-    <t>Lamia,L L L D W L D D W</t>
-  </si>
-  <si>
-    <t>OFI Crete,D D D D L W D D W</t>
-  </si>
-  <si>
-    <t>Olympiakos,D W W W D W W W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,W L L W D W L D L</t>
-  </si>
-  <si>
-    <t>Panetolikos,D W L D L L L L L</t>
-  </si>
-  <si>
-    <t>PAOK,L W W W W D L W W</t>
-  </si>
-  <si>
-    <t>Volos NFC,W W W L W D L D L</t>
-  </si>
-  <si>
-    <t>AEK,3 3 1 0 3 3 3 2 2,(20)</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 1 0 0 0 1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 3 0 1 5 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 0 0 0 1 1 2 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 1 0 1 1 0 0 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 1 1 1 0 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 1 0 0 1 1 2 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Lamia,1 1 0 2 2 0 0 2 1,(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 1 2 0 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 2 4 2 0 2 2 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 0 0 5 0 4 1 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 2 1 2 1 1 1 1 0,(9)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 2 2 3 4 1 4 3,(20)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 3 3 1 2 4 1 1 1,(18)</t>
-  </si>
-  <si>
-    <t>AEK,0 3 0 2 1 0 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Apollon,4 3 4 0 0 1 0 4 2,(18)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 0 1 0 0 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 2 0 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 2 3 3 1 3 2 2 2,(18)</t>
-  </si>
-  <si>
-    <t>Giannina,0 0 0 1 1 2 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 0 0 0 2 4 0 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 1 2 1 1 0 2 0,(11)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 3 1 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 1 0 0 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 1 1 1 0 1 2 0 3,(9)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 2 2 3 2 5 2 3,(20)</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 1 0 1 4 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 1 0 5 1 4 3 1 2,(18)</t>
-  </si>
-  <si>
-    <t>AEK,3 6 1 2 4 3 4 3 4,(30)</t>
-  </si>
-  <si>
-    <t>Apollon,4 4 5 0 0 1 1 5 4,(24)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 4 0 1 6 3 3,(19)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 3 1 3 2 1,(13)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 3 3 4 2 3 2 4 2,(23)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 2 2 3 1 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 1 0 0 3 5 2 2 1,(17)</t>
-  </si>
-  <si>
-    <t>Lamia,3 3 1 4 3 1 0 4 1,(20)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 6 0 2 4 3 0 0 2,(17)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 3 5 2 0 3 3 3 1,(20)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 1 1 6 0 5 3 0 4,(24)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 3 3 4 4 3 6 3 3,(29)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 3 2 4 8 3 5 4,(31)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 4 3 6 3 8 4 2 3,(36)</t>
-  </si>
-  <si>
-    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3 2-1 2-2</t>
-  </si>
-  <si>
-    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0 4-1 2-2</t>
-  </si>
-  <si>
-    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1 2-1 1-2</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2 1-1 1-0</t>
-  </si>
-  <si>
-    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0 2-2 0-1</t>
-  </si>
-  <si>
-    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0 0-0 2-0</t>
-  </si>
-  <si>
-    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1 0-0 1-3</t>
-  </si>
-  <si>
-    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1 1-2 3-0</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1 4-1 1-3</t>
-  </si>
-  <si>
-    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3 1-1 1-2</t>
-  </si>
-  <si>
-    <t>AEK,3 0 1 -2 2 3 2 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Apollon,-4 -2 -3 0 0 -1 1 -3 0,(-12)</t>
-  </si>
-  <si>
-    <t>Aris,0 -1 1 2 0 1 4 -1 1,(7)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1 0 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 -1 -3 -2 0 -3 -2 0 -2,(-13)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 0 0 -1 -1 0 3,(3)</t>
-  </si>
-  <si>
-    <t>Ionikos,-3 1 0 0 -1 -3 2 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Lamia,-1 -1 -1 0 1 -1 0 0 1,(-2)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 0 0 -2 1 0 0 2,(1)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 3 2 0 1 1 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 -1 -1 4 0 3 -1 0 -2,(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 -1 0 -2 -1 -4 -1 -3,(-11)</t>
-  </si>
-  <si>
-    <t>PAOK,-1 1 1 2 2 0 -1 3 2,(9)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 2 3 -4 1 0 -2 0 -1,(0)</t>
-  </si>
-  <si>
-    <t>AEK,Ionikos(10) OFI Crete(7) Lamia(11) PAOK(3) Panetolikos(13) Atromitos(14) Volos NFC(5) Aris(4) Apollon(12)</t>
-  </si>
-  <si>
-    <t>Apollon,Panathinaikos(8) Volos NFC(5) Olympiakos(1) Ionikos(10) Aris(4) Asteras Tripolis(9) Giannina(6) PAOK(3) AEK(2)</t>
-  </si>
-  <si>
-    <t>Aris,OFI Crete(7) Ionikos(10) Panathinaikos(8) Atromitos(14) Apollon(12) Lamia(11) Panetolikos(13) AEK(2) Volos NFC(5)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,Panetolikos(13) PAOK(3) OFI Crete(7) Olympiakos(1) Volos NFC(5) Apollon(12) Panathinaikos(8) Giannina(6) Lamia(11)</t>
-  </si>
-  <si>
-    <t>Atromitos,Olympiakos(1) Panetolikos(13) Volos NFC(5) Aris(4) Giannina(6) AEK(2) Ionikos(10) Lamia(11) OFI Crete(7)</t>
-  </si>
-  <si>
-    <t>Giannina,PAOK(3) Panathinaikos(8) Ionikos(10) OFI Crete(7) Atromitos(14) Olympiakos(1) Apollon(12) Asteras Tripolis(9) Panetolikos(13)</t>
-  </si>
-  <si>
-    <t>Ionikos,AEK(2) Aris(4) Giannina(6) Apollon(12) Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(5) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>Lamia,Volos NFC(5) Olympiakos(1) AEK(2) Panetolikos(13) Ionikos(10) Aris(4) OFI Crete(7) Atromitos(14) Asteras Tripolis(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Aris(4) AEK(2) Asteras Tripolis(9) Giannina(6) PAOK(3) Panetolikos(13) Lamia(11) Panathinaikos(8) Atromitos(14)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Atromitos(14) Lamia(11) Apollon(12) Asteras Tripolis(9) Panathinaikos(8) Giannina(6) PAOK(3) Panetolikos(13) Ionikos(10)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Apollon(12) Giannina(6) Aris(4) Volos NFC(5) Olympiakos(1) Ionikos(10) Asteras Tripolis(9) OFI Crete(7) PAOK(3)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Asteras Tripolis(9) Atromitos(14) PAOK(3) Lamia(11) AEK(2) OFI Crete(7) Aris(4) Olympiakos(1) Giannina(6)</t>
-  </si>
-  <si>
-    <t>PAOK,Giannina(6) Asteras Tripolis(9) Panetolikos(13) AEK(2) OFI Crete(7) Volos NFC(5) Olympiakos(1) Apollon(12) Panathinaikos(8)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Lamia(11) Apollon(12) Atromitos(14) Panathinaikos(8) Asteras Tripolis(9) PAOK(3) AEK(2) Ionikos(10) Aris(4)</t>
+    <t>AEK,L W W W W D</t>
+  </si>
+  <si>
+    <t>Apollon,D D L W L D</t>
+  </si>
+  <si>
+    <t>Aris,W D W W L W</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,L L W W D L</t>
+  </si>
+  <si>
+    <t>Atromitos,L D L L D L</t>
+  </si>
+  <si>
+    <t>Giannina,D D L L D W</t>
+  </si>
+  <si>
+    <t>Ionikos,D L L W D L</t>
+  </si>
+  <si>
+    <t>Lamia,D W L D D W</t>
+  </si>
+  <si>
+    <t>OFI Crete,D L W D D W</t>
+  </si>
+  <si>
+    <t>Olympiakos,W D W W W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,W D W L D L</t>
+  </si>
+  <si>
+    <t>Panetolikos,D L L L L L</t>
+  </si>
+  <si>
+    <t>PAOK,W W D L W W</t>
+  </si>
+  <si>
+    <t>Volos NFC,L W D L D L</t>
+  </si>
+  <si>
+    <t>AEK,0 3 3 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Apollon,0 0 0 1 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Aris,3 0 1 5 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 1 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 1 0 0 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 1 0 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 1 1 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Lamia,2 2 0 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 1 2 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 0 2 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,5 0 4 1 0 1,(11)</t>
+  </si>
+  <si>
+    <t>Panetolikos,2 1 1 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>PAOK,2 3 4 1 4 3,(17)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 2 4 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>AEK,2 1 0 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Apollon,0 0 1 0 4 2,(7)</t>
+  </si>
+  <si>
+    <t>Aris,1 0 0 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 2 0 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Atromitos,3 1 3 2 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 2 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 2 4 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Lamia,2 1 1 0 2 0,(6)</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 3 1 0 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 0 1 2 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Panetolikos,2 3 2 5 2 3,(17)</t>
+  </si>
+  <si>
+    <t>PAOK,0 1 4 2 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Volos NFC,5 1 4 3 1 2,(16)</t>
+  </si>
+  <si>
+    <t>AEK,2 4 3 4 3 4,(20)</t>
+  </si>
+  <si>
+    <t>Apollon,0 0 1 1 5 4,(11)</t>
+  </si>
+  <si>
+    <t>Aris,4 0 1 6 3 3,(17)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 3 1 3 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Atromitos,4 2 3 2 4 2,(17)</t>
+  </si>
+  <si>
+    <t>Giannina,2 2 3 1 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 3 5 2 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Lamia,4 3 1 0 4 1,(13)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 4 3 0 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 0 3 3 3 1,(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,6 0 5 3 0 4,(18)</t>
+  </si>
+  <si>
+    <t>Panetolikos,4 4 3 6 3 3,(23)</t>
+  </si>
+  <si>
+    <t>PAOK,2 4 8 3 5 4,(26)</t>
+  </si>
+  <si>
+    <t>Volos NFC,6 3 8 4 2 3,(26)</t>
+  </si>
+  <si>
+    <t>AEK,2-0 1-3 3-0 1-3 2-1 2-2</t>
+  </si>
+  <si>
+    <t>Apollon,0-0 0-0 0-1 1-0 4-1 2-2</t>
+  </si>
+  <si>
+    <t>Aris,1-3 0-0 0-1 5-1 2-1 1-2</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0-2 2-1 0-1 2-1 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Atromitos,1-3 1-1 3-0 0-2 2-2 2-0</t>
+  </si>
+  <si>
+    <t>Giannina,1-1 1-1 1-2 1-0 1-1 3-0</t>
+  </si>
+  <si>
+    <t>Ionikos,0-0 1-2 4-1 0-2 1-1 1-0</t>
+  </si>
+  <si>
+    <t>Lamia,2-2 1-2 0-1 0-0 2-2 0-1</t>
+  </si>
+  <si>
+    <t>OFI Crete,1-1 1-3 1-2 0-0 0-0 2-0</t>
+  </si>
+  <si>
+    <t>Olympiakos,0-2 0-0 1-2 2-1 1-2 1-0</t>
+  </si>
+  <si>
+    <t>Panathinaikos,5-1 0-0 4-1 2-1 0-0 1-3</t>
+  </si>
+  <si>
+    <t>Panetolikos,2-2 1-3 1-2 5-1 1-2 3-0</t>
+  </si>
+  <si>
+    <t>PAOK,2-0 1-3 4-4 2-1 4-1 1-3</t>
+  </si>
+  <si>
+    <t>Volos NFC,5-1 2-1 4-4 1-3 1-1 1-2</t>
+  </si>
+  <si>
+    <t>AEK,-2 2 3 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Apollon,0 0 -1 1 -3 0,(-3)</t>
+  </si>
+  <si>
+    <t>Aris,2 0 1 4 -1 1,(7)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,-2 -1 1 1 0 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Atromitos,-2 0 -3 -2 0 -2,(-9)</t>
+  </si>
+  <si>
+    <t>Giannina,0 0 -1 -1 0 3,(1)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 -1 -3 2 0 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Lamia,0 1 -1 0 0 1,(1)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 -2 1 0 0 2,(1)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 0 1 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 0 3 -1 0 -2,(4)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 -2 -1 -4 -1 -3,(-11)</t>
+  </si>
+  <si>
+    <t>PAOK,2 2 0 -1 3 2,(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,-4 1 0 -2 0 -1,(-6)</t>
+  </si>
+  <si>
+    <t>AEK,PAOK(3) Panetolikos(13) Atromitos(14) Volos NFC(5) Aris(4) Apollon(12)</t>
+  </si>
+  <si>
+    <t>Apollon,Ionikos(10) Aris(4) Asteras Tripolis(9) Giannina(6) PAOK(3) AEK(2)</t>
+  </si>
+  <si>
+    <t>Aris,Atromitos(14) Apollon(12) Lamia(11) Panetolikos(13) AEK(2) Volos NFC(5)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,Olympiakos(1) Volos NFC(5) Apollon(12) Panathinaikos(8) Giannina(6) Lamia(11)</t>
+  </si>
+  <si>
+    <t>Atromitos,Aris(4) Giannina(6) AEK(2) Ionikos(10) Lamia(11) OFI Crete(7)</t>
+  </si>
+  <si>
+    <t>Giannina,OFI Crete(7) Atromitos(14) Olympiakos(1) Apollon(12) Asteras Tripolis(9) Panetolikos(13)</t>
+  </si>
+  <si>
+    <t>Ionikos,Apollon(12) Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(5) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>Lamia,Panetolikos(13) Ionikos(10) Aris(4) OFI Crete(7) Atromitos(14) Asteras Tripolis(9)</t>
+  </si>
+  <si>
+    <t>OFI Crete,Giannina(6) PAOK(3) Panetolikos(13) Lamia(11) Panathinaikos(8) Atromitos(14)</t>
+  </si>
+  <si>
+    <t>Olympiakos,Asteras Tripolis(9) Panathinaikos(8) Giannina(6) PAOK(3) Panetolikos(13) Ionikos(10)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,Volos NFC(5) Olympiakos(1) Ionikos(10) Asteras Tripolis(9) OFI Crete(7) PAOK(3)</t>
+  </si>
+  <si>
+    <t>Panetolikos,Lamia(11) AEK(2) OFI Crete(7) Aris(4) Olympiakos(1) Giannina(6)</t>
+  </si>
+  <si>
+    <t>PAOK,AEK(2) OFI Crete(7) Volos NFC(5) Olympiakos(1) Apollon(12) Panathinaikos(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Panathinaikos(8) Asteras Tripolis(9) PAOK(3) AEK(2) Ionikos(10) Aris(4)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -771,298 +771,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,W D W L W W W W D L</t>
-  </si>
-  <si>
-    <t>Apollon,L L L D D L W L D L</t>
-  </si>
-  <si>
-    <t>Aris,D L W W D W W L W L</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,D L D L L W W D L D</t>
-  </si>
-  <si>
-    <t>Atromitos,D L L L D L L D L W</t>
-  </si>
-  <si>
-    <t>Giannina,W W D D D L L D W W</t>
-  </si>
-  <si>
-    <t>Ionikos,L W D D L L W D L D</t>
-  </si>
-  <si>
-    <t>Lamia,L L L D W L D D W</t>
-  </si>
-  <si>
-    <t>OFI Crete,D D D D L W D D W W</t>
-  </si>
-  <si>
-    <t>Olympiakos,D W W W D W W W W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,W L L W D W L D L</t>
-  </si>
-  <si>
-    <t>Panetolikos,D W L D L L L L L W</t>
-  </si>
-  <si>
-    <t>PAOK,L W W W W D L W W L</t>
-  </si>
-  <si>
-    <t>Volos NFC,W W W L W D L D L L</t>
-  </si>
-  <si>
-    <t>AEK,3 3 1 0 3 3 3 2 2 2,(22)</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 1 0 0 0 1 1 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 3 0 1 5 1 2 0,(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 0 0 0 1 1 2 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 1 0 1 1 0 0 2 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 1 1 1 0 1 3 5,(14)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 1 0 0 1 1 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Lamia,1 1 0 2 2 0 0 2 1,(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 1 2 0 0 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 2 4 2 0 2 2 2 1 3,(18)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 0 0 5 0 4 1 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 2 1 2 1 1 1 1 0 1,(10)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 2 2 3 4 1 4 3 0,(20)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 3 3 1 2 4 1 1 1 0,(18)</t>
-  </si>
-  <si>
-    <t>AEK,0 3 0 2 1 0 1 1 2 3,(13)</t>
-  </si>
-  <si>
-    <t>Apollon,4 3 4 0 0 1 0 4 2 1,(19)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 0 1 0 0 1 2 1 5,(11)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 2 0 1 1 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 2 3 3 1 3 2 2 2 0,(18)</t>
-  </si>
-  <si>
-    <t>Giannina,0 0 0 1 1 2 1 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 0 0 0 2 4 0 1 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 1 2 1 1 0 2 0,(11)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 3 1 0 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 1 0 0 1 1 1 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 1 1 1 0 1 2 0 3,(9)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 2 2 3 2 5 2 3 0,(20)</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 1 0 1 4 2 1 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 1 0 5 1 4 3 1 2 2,(20)</t>
-  </si>
-  <si>
-    <t>AEK,3 6 1 2 4 3 4 3 4 5,(35)</t>
-  </si>
-  <si>
-    <t>Apollon,4 4 5 0 0 1 1 5 4 1,(25)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 4 0 1 6 3 3 5,(24)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 3 1 3 2 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 3 3 4 2 3 2 4 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 2 2 3 1 2 3 5,(20)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 1 0 0 3 5 2 2 1 2,(19)</t>
-  </si>
-  <si>
-    <t>Lamia,3 3 1 4 3 1 0 4 1,(20)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 6 0 2 4 3 0 0 2 2,(19)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 3 5 2 0 3 3 3 1 5,(25)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 1 1 6 0 5 3 0 4,(24)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 3 3 4 4 3 6 3 3 1,(30)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 3 2 4 8 3 5 4 2,(33)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 4 3 6 3 8 4 2 3 2,(38)</t>
-  </si>
-  <si>
-    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3 2-1 2-2 2-3</t>
-  </si>
-  <si>
-    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0 4-1 2-2 1-0</t>
-  </si>
-  <si>
-    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1 2-1 1-2 0-5</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1 1-1 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2 2-2 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0 1-1 3-0 0-5</t>
-  </si>
-  <si>
-    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2 1-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0 2-2 0-1</t>
-  </si>
-  <si>
-    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0 0-0 2-0 0-2</t>
-  </si>
-  <si>
-    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1 1-2 1-0 2-3</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1 0-0 1-3</t>
-  </si>
-  <si>
-    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1 1-2 3-0 1-0</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1 4-1 1-3 2-0</t>
-  </si>
-  <si>
-    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3 1-1 1-2 0-2</t>
-  </si>
-  <si>
-    <t>AEK,3 0 1 -2 2 3 2 1 0 -1,(9)</t>
-  </si>
-  <si>
-    <t>Apollon,-4 -2 -3 0 0 -1 1 -3 0 -1,(-13)</t>
-  </si>
-  <si>
-    <t>Aris,0 -1 1 2 0 1 4 -1 1 -5,(2)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1 0 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 -1 -3 -2 0 -3 -2 0 -2 2,(-11)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 0 0 -1 -1 0 3 5,(8)</t>
-  </si>
-  <si>
-    <t>Ionikos,-3 1 0 0 -1 -3 2 0 -1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Lamia,-1 -1 -1 0 1 -1 0 0 1,(-2)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 0 0 -2 1 0 0 2 2,(3)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 3 2 0 1 1 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 -1 -1 4 0 3 -1 0 -2,(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 -1 0 -2 -1 -4 -1 -3 1,(-10)</t>
-  </si>
-  <si>
-    <t>PAOK,-1 1 1 2 2 0 -1 3 2 -2,(7)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 2 3 -4 1 0 -2 0 -1 -2,(-2)</t>
-  </si>
-  <si>
-    <t>AEK,Ionikos(10) OFI Crete(6) Lamia(11) PAOK(3) Panetolikos(12) Atromitos(14) Volos NFC(7) Aris(4) Apollon(13) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>Apollon,Panathinaikos(8) Volos NFC(7) Olympiakos(1) Ionikos(10) Aris(4) Asteras Tripolis(9) Giannina(5) PAOK(3) AEK(2) Panetolikos(12)</t>
-  </si>
-  <si>
-    <t>Aris,OFI Crete(6) Ionikos(10) Panathinaikos(8) Atromitos(14) Apollon(13) Lamia(11) Panetolikos(12) AEK(2) Volos NFC(7) Giannina(5)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,Panetolikos(12) PAOK(3) OFI Crete(6) Olympiakos(1) Volos NFC(7) Apollon(13) Panathinaikos(8) Giannina(5) Lamia(11) Ionikos(10)</t>
-  </si>
-  <si>
-    <t>Atromitos,Olympiakos(1) Panetolikos(12) Volos NFC(7) Aris(4) Giannina(5) AEK(2) Ionikos(10) Lamia(11) OFI Crete(6) PAOK(3)</t>
-  </si>
-  <si>
-    <t>Giannina,PAOK(3) Panathinaikos(8) Ionikos(10) OFI Crete(6) Atromitos(14) Olympiakos(1) Apollon(13) Asteras Tripolis(9) Panetolikos(12) Aris(4)</t>
-  </si>
-  <si>
-    <t>Ionikos,AEK(2) Aris(4) Giannina(5) Apollon(13) Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(7) Olympiakos(1) Asteras Tripolis(9)</t>
-  </si>
-  <si>
-    <t>Lamia,Volos NFC(7) Olympiakos(1) AEK(2) Panetolikos(12) Ionikos(10) Aris(4) OFI Crete(6) Atromitos(14) Asteras Tripolis(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Aris(4) AEK(2) Asteras Tripolis(9) Giannina(5) PAOK(3) Panetolikos(12) Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(7)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Atromitos(14) Lamia(11) Apollon(13) Asteras Tripolis(9) Panathinaikos(8) Giannina(5) PAOK(3) Panetolikos(12) Ionikos(10) AEK(2)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Apollon(13) Giannina(5) Aris(4) Volos NFC(7) Olympiakos(1) Ionikos(10) Asteras Tripolis(9) OFI Crete(6) PAOK(3)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Asteras Tripolis(9) Atromitos(14) PAOK(3) Lamia(11) AEK(2) OFI Crete(6) Aris(4) Olympiakos(1) Giannina(5) Apollon(13)</t>
-  </si>
-  <si>
-    <t>PAOK,Giannina(5) Asteras Tripolis(9) Panetolikos(12) AEK(2) OFI Crete(6) Volos NFC(7) Olympiakos(1) Apollon(13) Panathinaikos(8) Atromitos(14)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Lamia(11) Apollon(13) Atromitos(14) Panathinaikos(8) Asteras Tripolis(9) PAOK(3) AEK(2) Ionikos(10) Aris(4) OFI Crete(6)</t>
+    <t>AEK,W W W W D L</t>
+  </si>
+  <si>
+    <t>Apollon,D L W L D L</t>
+  </si>
+  <si>
+    <t>Aris,D W W L W L</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,L W W D L D</t>
+  </si>
+  <si>
+    <t>Atromitos,D L L D L W</t>
+  </si>
+  <si>
+    <t>Giannina,D L L D W W</t>
+  </si>
+  <si>
+    <t>Ionikos,L L W D L D</t>
+  </si>
+  <si>
+    <t>Lamia,D W L D D W</t>
+  </si>
+  <si>
+    <t>OFI Crete,L W D D W W</t>
+  </si>
+  <si>
+    <t>Olympiakos,D W W W W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,W D W L D L</t>
+  </si>
+  <si>
+    <t>Panetolikos,L L L L L W</t>
+  </si>
+  <si>
+    <t>PAOK,W D L W W L</t>
+  </si>
+  <si>
+    <t>Volos NFC,W D L D L L</t>
+  </si>
+  <si>
+    <t>AEK,3 3 3 2 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Apollon,0 0 1 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 5 1 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 1 2 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 0 0 2 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 1 3 5,(11)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 1 2 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Lamia,2 2 0 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>OFI Crete,1 2 0 0 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 2 2 2 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,5 0 4 1 0 1,(11)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 1 1 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>PAOK,3 4 1 4 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 4 1 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>AEK,1 0 1 1 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Apollon,0 1 0 4 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Aris,0 0 1 2 1 5,(9)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 0 1 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,1 3 2 2 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Giannina,1 2 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,2 4 0 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Lamia,2 1 1 0 2 0,(6)</t>
+  </si>
+  <si>
+    <t>OFI Crete,3 1 0 0 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 1 1 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 0 1 2 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Panetolikos,3 2 5 2 3 0,(15)</t>
+  </si>
+  <si>
+    <t>PAOK,1 4 2 1 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 4 3 1 2 2,(13)</t>
+  </si>
+  <si>
+    <t>AEK,4 3 4 3 4 5,(23)</t>
+  </si>
+  <si>
+    <t>Apollon,0 1 1 5 4 1,(12)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 6 3 3 5,(18)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,3 1 3 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 3 2 4 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Giannina,2 3 1 2 3 5,(16)</t>
+  </si>
+  <si>
+    <t>Ionikos,3 5 2 2 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Lamia,4 3 1 0 4 1,(13)</t>
+  </si>
+  <si>
+    <t>OFI Crete,4 3 0 0 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 3 3 3 1 5,(15)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,6 0 5 3 0 4,(18)</t>
+  </si>
+  <si>
+    <t>Panetolikos,4 3 6 3 3 1,(20)</t>
+  </si>
+  <si>
+    <t>PAOK,4 8 3 5 4 2,(26)</t>
+  </si>
+  <si>
+    <t>Volos NFC,3 8 4 2 3 2,(22)</t>
+  </si>
+  <si>
+    <t>AEK,1-3 3-0 1-3 2-1 2-2 2-3</t>
+  </si>
+  <si>
+    <t>Apollon,0-0 0-1 1-0 4-1 2-2 1-0</t>
+  </si>
+  <si>
+    <t>Aris,0-0 0-1 5-1 2-1 1-2 0-5</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2-1 0-1 2-1 1-1 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Atromitos,1-1 3-0 0-2 2-2 2-0 2-0</t>
+  </si>
+  <si>
+    <t>Giannina,1-1 1-2 1-0 1-1 3-0 0-5</t>
+  </si>
+  <si>
+    <t>Ionikos,1-2 4-1 0-2 1-1 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Lamia,2-2 1-2 0-1 0-0 2-2 0-1</t>
+  </si>
+  <si>
+    <t>OFI Crete,1-3 1-2 0-0 0-0 2-0 0-2</t>
+  </si>
+  <si>
+    <t>Olympiakos,0-0 1-2 2-1 1-2 1-0 2-3</t>
+  </si>
+  <si>
+    <t>Panathinaikos,5-1 0-0 4-1 2-1 0-0 1-3</t>
+  </si>
+  <si>
+    <t>Panetolikos,1-3 1-2 5-1 1-2 3-0 1-0</t>
+  </si>
+  <si>
+    <t>PAOK,1-3 4-4 2-1 4-1 1-3 2-0</t>
+  </si>
+  <si>
+    <t>Volos NFC,2-1 4-4 1-3 1-1 1-2 0-2</t>
+  </si>
+  <si>
+    <t>AEK,2 3 2 1 0 -1,(7)</t>
+  </si>
+  <si>
+    <t>Apollon,0 -1 1 -3 0 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 4 -1 1 -5,(0)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,-1 1 1 0 -1 0,(0)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 -3 -2 0 -2 2,(-5)</t>
+  </si>
+  <si>
+    <t>Giannina,0 -1 -1 0 3 5,(6)</t>
+  </si>
+  <si>
+    <t>Ionikos,-1 -3 2 0 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Lamia,0 1 -1 0 0 1,(1)</t>
+  </si>
+  <si>
+    <t>OFI Crete,-2 1 0 0 2 2,(3)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 1 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 0 3 -1 0 -2,(4)</t>
+  </si>
+  <si>
+    <t>Panetolikos,-2 -1 -4 -1 -3 1,(-10)</t>
+  </si>
+  <si>
+    <t>PAOK,2 0 -1 3 2 -2,(4)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 0 -2 0 -1 -2,(-4)</t>
+  </si>
+  <si>
+    <t>AEK,Panetolikos(12) Atromitos(14) Volos NFC(7) Aris(4) Apollon(13) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>Apollon,Aris(4) Asteras Tripolis(9) Giannina(5) PAOK(3) AEK(2) Panetolikos(12)</t>
+  </si>
+  <si>
+    <t>Aris,Apollon(13) Lamia(11) Panetolikos(12) AEK(2) Volos NFC(7) Giannina(5)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,Volos NFC(7) Apollon(13) Panathinaikos(8) Giannina(5) Lamia(11) Ionikos(10)</t>
+  </si>
+  <si>
+    <t>Atromitos,Giannina(5) AEK(2) Ionikos(10) Lamia(11) OFI Crete(6) PAOK(3)</t>
+  </si>
+  <si>
+    <t>Giannina,Atromitos(14) Olympiakos(1) Apollon(13) Asteras Tripolis(9) Panetolikos(12) Aris(4)</t>
+  </si>
+  <si>
+    <t>Ionikos,Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(7) Olympiakos(1) Asteras Tripolis(9)</t>
+  </si>
+  <si>
+    <t>Lamia,Panetolikos(12) Ionikos(10) Aris(4) OFI Crete(6) Atromitos(14) Asteras Tripolis(9)</t>
+  </si>
+  <si>
+    <t>OFI Crete,PAOK(3) Panetolikos(12) Lamia(11) Panathinaikos(8) Atromitos(14) Volos NFC(7)</t>
+  </si>
+  <si>
+    <t>Olympiakos,Panathinaikos(8) Giannina(5) PAOK(3) Panetolikos(12) Ionikos(10) AEK(2)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,Volos NFC(7) Olympiakos(1) Ionikos(10) Asteras Tripolis(9) OFI Crete(6) PAOK(3)</t>
+  </si>
+  <si>
+    <t>Panetolikos,AEK(2) OFI Crete(6) Aris(4) Olympiakos(1) Giannina(5) Apollon(13)</t>
+  </si>
+  <si>
+    <t>PAOK,OFI Crete(6) Volos NFC(7) Olympiakos(1) Apollon(13) Panathinaikos(8) Atromitos(14)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Asteras Tripolis(9) PAOK(3) AEK(2) Ionikos(10) Aris(4) OFI Crete(6)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -852,298 +852,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,L W W D W L</t>
-  </si>
-  <si>
-    <t>Apollon,W L D L D L</t>
-  </si>
-  <si>
-    <t>Aris,L W W L D W</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,D W L D W L</t>
-  </si>
-  <si>
-    <t>Atromitos,W L W L L L</t>
-  </si>
-  <si>
-    <t>Giannina,W L W W L L</t>
-  </si>
-  <si>
-    <t>Ionikos,D L W D L L</t>
-  </si>
-  <si>
-    <t>Lamia,L D L L D L</t>
-  </si>
-  <si>
-    <t>OFI Crete,W W W L D W</t>
-  </si>
-  <si>
-    <t>Olympiakos,W W W W W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,L W W L W W</t>
-  </si>
-  <si>
-    <t>Panetolikos,W L W D L W</t>
-  </si>
-  <si>
-    <t>PAOK,L L L W W W</t>
-  </si>
-  <si>
-    <t>Volos NFC,L L L L L D</t>
-  </si>
-  <si>
-    <t>AEK,2 2 1 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Apollon,1 1 2 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 6 0 0 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Atromitos,2 2 4 0 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Giannina,5 1 1 3 0 0,(10)</t>
-  </si>
-  <si>
-    <t>Ionikos,1 1 3 2 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Lamia,1 0 0 1 2 0,(4)</t>
-  </si>
-  <si>
-    <t>OFI Crete,2 2 2 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Olympiakos,3 2 3 1 3 1,(13)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 3 2 0 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 0 2 2 0 2,(7)</t>
-  </si>
-  <si>
-    <t>PAOK,0 0 2 2 4 3,(11)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 0 1 1 2 2,(7)</t>
-  </si>
-  <si>
-    <t>AEK,3 1 0 0 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Apollon,0 4 2 1 0 4,(11)</t>
-  </si>
-  <si>
-    <t>Aris,5 0 0 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 2 1 0 0 3,(7)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 6 1 2 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Giannina,0 2 0 2 4 2,(10)</t>
-  </si>
-  <si>
-    <t>Ionikos,1 2 2 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Lamia,3 0 1 2 2 1,(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 1 3 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Olympiakos,2 1 1 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,3 1 0 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 2 1 2 1 1,(7)</t>
-  </si>
-  <si>
-    <t>PAOK,2 1 3 1 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 2 2 2 3 2,(13)</t>
-  </si>
-  <si>
-    <t>AEK,5 3 1 0 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Apollon,1 5 4 1 0 5,(16)</t>
-  </si>
-  <si>
-    <t>Aris,5 1 1 1 2 1,(11)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,2 8 1 0 1 5,(17)</t>
-  </si>
-  <si>
-    <t>Atromitos,2 8 5 2 3 3,(23)</t>
-  </si>
-  <si>
-    <t>Giannina,5 3 1 5 4 2,(20)</t>
-  </si>
-  <si>
-    <t>Ionikos,2 3 5 4 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Lamia,4 0 1 3 4 1,(13)</t>
-  </si>
-  <si>
-    <t>OFI Crete,2 2 3 4 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Olympiakos,5 3 4 1 3 1,(17)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 4 2 1 2 2,(15)</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 2 3 4 1 3,(14)</t>
-  </si>
-  <si>
-    <t>PAOK,2 1 5 3 4 5,(20)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 2 3 3 5 4,(20)</t>
-  </si>
-  <si>
-    <t>AEK,2-3 1-2 1-0 0-0 0-1 1-2</t>
-  </si>
-  <si>
-    <t>Apollon,1-0 4-1 2-2 1-0 0-0 4-1</t>
-  </si>
-  <si>
-    <t>Aris,0-5 0-1 1-0 1-0 1-1 1-0</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1-1 6-2 1-0 0-0 1-0 3-2</t>
-  </si>
-  <si>
-    <t>Atromitos,2-0 6-2 4-1 2-0 0-3 2-1</t>
-  </si>
-  <si>
-    <t>Giannina,0-5 1-2 0-1 3-2 0-4 2-0</t>
-  </si>
-  <si>
-    <t>Ionikos,1-1 2-1 3-2 2-2 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Lamia,1-3 0-0 0-1 2-1 2-2 1-0</t>
-  </si>
-  <si>
-    <t>OFI Crete,2-0 0-2 2-1 1-3 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Olympiakos,2-3 2-1 1-3 1-0 0-3 1-0</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1-3 1-3 2-0 1-0 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Panetolikos,1-0 2-0 1-2 2-2 1-0 2-1</t>
-  </si>
-  <si>
-    <t>PAOK,2-0 0-1 3-2 2-1 0-4 3-2</t>
-  </si>
-  <si>
-    <t>Volos NFC,1-2 0-2 2-1 1-2 3-2 2-2</t>
-  </si>
-  <si>
-    <t>AEK,-1 1 1 0 1 -1,(1)</t>
-  </si>
-  <si>
-    <t>Apollon,1 -3 0 -1 0 -3,(-6)</t>
-  </si>
-  <si>
-    <t>Aris,-5 1 1 -1 0 1,(-3)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 4 -1 0 1 -1,(3)</t>
-  </si>
-  <si>
-    <t>Atromitos,2 -4 3 -2 -3 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Giannina,5 -1 1 1 -4 -2,(0)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 -1 1 0 -1 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Lamia,-2 0 -1 -1 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>OFI Crete,2 2 1 -2 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 1 2 1 3 1,(9)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,-2 2 2 -1 2 2,(5)</t>
-  </si>
-  <si>
-    <t>Panetolikos,1 -2 1 0 -1 1,(0)</t>
-  </si>
-  <si>
-    <t>PAOK,-2 -1 -1 1 4 1,(2)</t>
-  </si>
-  <si>
-    <t>Volos NFC,-1 -2 -1 -1 -1 0,(-6)</t>
-  </si>
-  <si>
-    <t>AEK,Olympiakos(1) Giannina(6) Panathinaikos(5) Asteras Tripolis(8) Ionikos(11) OFI Crete(7)</t>
-  </si>
-  <si>
-    <t>Apollon,Giannina(6) PAOK(3) AEK(2) Panetolikos(9) Lamia(12) Atromitos(13)</t>
-  </si>
-  <si>
-    <t>Aris,Giannina(6) PAOK(3) Asteras Tripolis(8) Olympiakos(1) OFI Crete(7) Ionikos(11)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,Ionikos(11) Atromitos(13) Aris(4) AEK(2) Panetolikos(9) PAOK(3)</t>
-  </si>
-  <si>
-    <t>Atromitos,PAOK(3) Asteras Tripolis(8) Apollon(14) Panathinaikos(5) Olympiakos(1) Panetolikos(9)</t>
-  </si>
-  <si>
-    <t>Giannina,Aris(4) AEK(2) Lamia(12) Volos NFC(10) PAOK(3) Panathinaikos(5)</t>
-  </si>
-  <si>
-    <t>Ionikos,Asteras Tripolis(8) OFI Crete(7) PAOK(3) Panetolikos(9) AEK(2) Aris(4)</t>
-  </si>
-  <si>
-    <t>Lamia,Panathinaikos(5) Apollon(14) Giannina(6) PAOK(3) Volos NFC(10) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Atromitos(13) Volos NFC(10) Ionikos(11) Olympiakos(1) Aris(4) AEK(2)</t>
-  </si>
-  <si>
-    <t>Olympiakos,AEK(2) Volos NFC(10) OFI Crete(7) Aris(4) Atromitos(13) Lamia(12)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,PAOK(3) Lamia(12) Panetolikos(9) AEK(2) Atromitos(13) Giannina(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Apollon(14) Panathinaikos(5) Volos NFC(10) Ionikos(11) Asteras Tripolis(8) Atromitos(13)</t>
-  </si>
-  <si>
-    <t>PAOK,Atromitos(13) Aris(4) Ionikos(11) Lamia(12) Giannina(6) Asteras Tripolis(8)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Aris(4) OFI Crete(7) Olympiakos(1) Panetolikos(9) Giannina(6) Lamia(12)</t>
+    <t>AEK,W D W L W W W W D L W W D W L</t>
+  </si>
+  <si>
+    <t>Apollon,L L L D D L W L D L D L</t>
+  </si>
+  <si>
+    <t>Aris,D L W W D W W L W L W W L D W</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,D L D L L W W D L D W L D W L</t>
+  </si>
+  <si>
+    <t>Atromitos,D L L L D L L D L W L W L L L</t>
+  </si>
+  <si>
+    <t>Giannina,W W D D D L L D W W L W W L L</t>
+  </si>
+  <si>
+    <t>Ionikos,L W D D L L W D L D L W D L L</t>
+  </si>
+  <si>
+    <t>Lamia,L L L D W L D D W L D L L D L</t>
+  </si>
+  <si>
+    <t>OFI Crete,D D D D L W D D W W W L D W</t>
+  </si>
+  <si>
+    <t>Olympiakos,D W W W D W W W W W W W W W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,W L L W D W L D L W W L W W</t>
+  </si>
+  <si>
+    <t>Panetolikos,D W L D L L L L L W L W D L W</t>
+  </si>
+  <si>
+    <t>PAOK,L W W W W D L W W L L L W W W</t>
+  </si>
+  <si>
+    <t>Volos NFC,W W W L W D L D L L L L L D</t>
+  </si>
+  <si>
+    <t>AEK,3 3 1 0 3 3 3 2 2 2 2 1 0 1 1,(27)</t>
+  </si>
+  <si>
+    <t>Apollon,0 1 1 0 0 0 1 1 2 0 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Aris,0 0 1 3 0 1 5 1 2 0 1 1 0 1 1,(17)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 0 0 0 1 1 2 1 0 1 6 0 0 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 1 0 1 1 0 0 2 0 2 2 4 0 0 1,(14)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 1 1 1 0 1 3 5 1 1 3 0 0,(19)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 1 0 0 1 1 2 1 0 1 1 3 2 0 0,(13)</t>
+  </si>
+  <si>
+    <t>Lamia,1 1 0 2 2 0 0 2 1 1 0 0 1 2 0,(13)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 3 0 1 1 2 0 0 2 2 2 1 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 2 4 2 0 2 2 2 1 3 2 3 1 3 1,(28)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 0 0 5 0 4 1 0 1 3 2 0 2 2,(24)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 2 1 2 1 1 1 1 0 1 0 2 2 0 2,(16)</t>
+  </si>
+  <si>
+    <t>PAOK,0 1 2 2 3 4 1 4 3 0 0 2 2 4 3,(31)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 3 3 1 2 4 1 1 1 0 1 1 2 2,(24)</t>
+  </si>
+  <si>
+    <t>AEK,0 3 0 2 1 0 1 1 2 3 1 0 0 0 2,(16)</t>
+  </si>
+  <si>
+    <t>Apollon,4 3 4 0 0 1 0 4 2 1 0 4,(23)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 0 1 0 0 1 2 1 5 0 0 1 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 0 2 2 0 1 1 1 1 2 1 0 0 3,(15)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 2 3 3 1 3 2 2 2 0 6 1 2 3 2,(32)</t>
+  </si>
+  <si>
+    <t>Giannina,0 0 0 1 1 2 1 1 0 0 2 0 2 4 2,(16)</t>
+  </si>
+  <si>
+    <t>Ionikos,3 0 0 0 2 4 0 1 1 1 2 2 2 1 1,(20)</t>
+  </si>
+  <si>
+    <t>Lamia,2 2 1 2 1 1 0 2 0 3 0 1 2 2 1,(20)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 3 0 1 3 1 0 0 0 0 1 3 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 1 0 0 1 1 1 0 2 1 1 0 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,0 1 1 1 0 1 2 0 3 1 0 1 0 0,(11)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 1 2 2 3 2 5 2 3 0 2 1 2 1 1,(27)</t>
+  </si>
+  <si>
+    <t>PAOK,1 0 1 0 1 4 2 1 1 2 1 3 1 0 2,(20)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 1 0 5 1 4 3 1 2 2 2 2 3 2,(29)</t>
+  </si>
+  <si>
+    <t>AEK,3 6 1 2 4 3 4 3 4 5 3 1 0 1 3,(43)</t>
+  </si>
+  <si>
+    <t>Apollon,4 4 5 0 0 1 1 5 4 1 0 5,(30)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 1 4 0 1 6 3 3 5 1 1 1 2 1,(30)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 1 0 2 3 1 3 2 1 2 8 1 0 1 5,(30)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 3 3 4 2 3 2 4 2 2 8 5 2 3 3,(46)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 2 2 3 1 2 3 5 3 1 5 4 2,(35)</t>
+  </si>
+  <si>
+    <t>Ionikos,3 1 0 0 3 5 2 2 1 2 3 5 4 1 1,(33)</t>
+  </si>
+  <si>
+    <t>Lamia,3 3 1 4 3 1 0 4 1 4 0 1 3 4 1,(33)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 6 0 2 4 3 0 0 2 2 3 4 2 3,(31)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 3 5 2 0 3 3 3 1 5 3 4 1 3 1,(37)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 1 1 6 0 5 3 0 4 4 2 1 2 2,(35)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 3 3 4 4 3 6 3 3 1 2 3 4 1 3,(43)</t>
+  </si>
+  <si>
+    <t>PAOK,1 1 3 2 4 8 3 5 4 2 1 5 3 4 5,(51)</t>
+  </si>
+  <si>
+    <t>Volos NFC,3 4 3 6 3 8 4 2 3 2 3 3 5 4,(53)</t>
+  </si>
+  <si>
+    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3 2-1 2-2 2-3 1-2 1-0 0-0 0-1 1-2</t>
+  </si>
+  <si>
+    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0 4-1 2-2 1-0 0-0 4-1</t>
+  </si>
+  <si>
+    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1 2-1 1-2 0-5 0-1 1-0 1-0 1-1 1-0</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1 1-1 0-1 1-1 6-2 1-0 0-0 1-0 3-2</t>
+  </si>
+  <si>
+    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2 2-2 2-0 2-0 6-2 4-1 2-0 0-3 2-1</t>
+  </si>
+  <si>
+    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0 1-1 3-0 0-5 1-2 0-1 3-2 0-4 2-0</t>
+  </si>
+  <si>
+    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2 1-1 1-0 1-1 2-1 3-2 2-2 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0 2-2 0-1 1-3 0-0 0-1 2-1 2-2 1-0</t>
+  </si>
+  <si>
+    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0 0-0 2-0 0-2 2-1 1-3 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1 1-2 1-0 2-3 2-1 1-3 1-0 0-3 1-0</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1 0-0 1-3 1-3 2-0 1-0 2-0 2-0</t>
+  </si>
+  <si>
+    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1 1-2 3-0 1-0 2-0 1-2 2-2 1-0 2-1</t>
+  </si>
+  <si>
+    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1 4-1 1-3 2-0 0-1 3-2 2-1 0-4 3-2</t>
+  </si>
+  <si>
+    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3 1-1 1-2 0-2 2-1 1-2 3-2 2-2</t>
+  </si>
+  <si>
+    <t>AEK,3 0 1 -2 2 3 2 1 0 -1 1 1 0 1 -1,(11)</t>
+  </si>
+  <si>
+    <t>Apollon,-4 -2 -3 0 0 -1 1 -3 0 -1 0 -3,(-16)</t>
+  </si>
+  <si>
+    <t>Aris,0 -1 1 2 0 1 4 -1 1 -5 1 1 -1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1 0 -1 0 4 -1 0 1 -1,(0)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 -1 -3 -2 0 -3 -2 0 -2 2 -4 3 -2 -3 -1,(-18)</t>
+  </si>
+  <si>
+    <t>Giannina,1 1 0 0 0 -1 -1 0 3 5 -1 1 1 -4 -2,(3)</t>
+  </si>
+  <si>
+    <t>Ionikos,-3 1 0 0 -1 -3 2 0 -1 0 -1 1 0 -1 -1,(-7)</t>
+  </si>
+  <si>
+    <t>Lamia,-1 -1 -1 0 1 -1 0 0 1 -2 0 -1 -1 0 -1,(-7)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 0 0 0 -2 1 0 0 2 2 1 -2 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Olympiakos,0 1 3 2 0 1 1 1 1 1 1 2 1 3 1,(19)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 -1 -1 4 0 3 -1 0 -2 2 2 -1 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 1 -1 0 -2 -1 -4 -1 -3 1 -2 1 0 -1 1,(-11)</t>
+  </si>
+  <si>
+    <t>PAOK,-1 1 1 2 2 0 -1 3 2 -2 -1 -1 1 4 1,(11)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 2 3 -4 1 0 -2 0 -1 -2 -1 -1 -1 0,(-5)</t>
+  </si>
+  <si>
+    <t>AEK,Ionikos(11) OFI Crete(7) Lamia(12) PAOK(3) Panetolikos(9) Atromitos(13) Volos NFC(10) Aris(4) Apollon(14) Olympiakos(1) Giannina(6) Panathinaikos(5) Asteras Tripolis(8) Ionikos(11) OFI Crete(7)</t>
+  </si>
+  <si>
+    <t>Apollon,Panathinaikos(5) Volos NFC(10) Olympiakos(1) Ionikos(11) Aris(4) Asteras Tripolis(8) Giannina(6) PAOK(3) AEK(2) Panetolikos(9) Lamia(12) Atromitos(13)</t>
+  </si>
+  <si>
+    <t>Aris,OFI Crete(7) Ionikos(11) Panathinaikos(5) Atromitos(13) Apollon(14) Lamia(12) Panetolikos(9) AEK(2) Volos NFC(10) Giannina(6) PAOK(3) Asteras Tripolis(8) Olympiakos(1) OFI Crete(7) Ionikos(11)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,Panetolikos(9) PAOK(3) OFI Crete(7) Olympiakos(1) Volos NFC(10) Apollon(14) Panathinaikos(5) Giannina(6) Lamia(12) Ionikos(11) Atromitos(13) Aris(4) AEK(2) Panetolikos(9) PAOK(3)</t>
+  </si>
+  <si>
+    <t>Atromitos,Olympiakos(1) Panetolikos(9) Volos NFC(10) Aris(4) Giannina(6) AEK(2) Ionikos(11) Lamia(12) OFI Crete(7) PAOK(3) Asteras Tripolis(8) Apollon(14) Panathinaikos(5) Olympiakos(1) Panetolikos(9)</t>
+  </si>
+  <si>
+    <t>Giannina,PAOK(3) Panathinaikos(5) Ionikos(11) OFI Crete(7) Atromitos(13) Olympiakos(1) Apollon(14) Asteras Tripolis(8) Panetolikos(9) Aris(4) AEK(2) Lamia(12) Volos NFC(10) PAOK(3) Panathinaikos(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,AEK(2) Aris(4) Giannina(6) Apollon(14) Lamia(12) Panathinaikos(5) Atromitos(13) Volos NFC(10) Olympiakos(1) Asteras Tripolis(8) OFI Crete(7) PAOK(3) Panetolikos(9) AEK(2) Aris(4)</t>
+  </si>
+  <si>
+    <t>Lamia,Volos NFC(10) Olympiakos(1) AEK(2) Panetolikos(9) Ionikos(11) Aris(4) OFI Crete(7) Atromitos(13) Asteras Tripolis(8) Panathinaikos(5) Apollon(14) Giannina(6) PAOK(3) Volos NFC(10) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>OFI Crete,Aris(4) AEK(2) Asteras Tripolis(8) Giannina(6) PAOK(3) Panetolikos(9) Lamia(12) Panathinaikos(5) Atromitos(13) Volos NFC(10) Ionikos(11) Olympiakos(1) Aris(4) AEK(2)</t>
+  </si>
+  <si>
+    <t>Olympiakos,Atromitos(13) Lamia(12) Apollon(14) Asteras Tripolis(8) Panathinaikos(5) Giannina(6) PAOK(3) Panetolikos(9) Ionikos(11) AEK(2) Volos NFC(10) OFI Crete(7) Aris(4) Atromitos(13) Lamia(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,Apollon(14) Giannina(6) Aris(4) Volos NFC(10) Olympiakos(1) Ionikos(11) Asteras Tripolis(8) OFI Crete(7) PAOK(3) Lamia(12) Panetolikos(9) AEK(2) Atromitos(13) Giannina(6)</t>
+  </si>
+  <si>
+    <t>Panetolikos,Asteras Tripolis(8) Atromitos(13) PAOK(3) Lamia(12) AEK(2) OFI Crete(7) Aris(4) Olympiakos(1) Giannina(6) Apollon(14) Panathinaikos(5) Volos NFC(10) Ionikos(11) Asteras Tripolis(8) Atromitos(13)</t>
+  </si>
+  <si>
+    <t>PAOK,Giannina(6) Asteras Tripolis(8) Panetolikos(9) AEK(2) OFI Crete(7) Volos NFC(10) Olympiakos(1) Apollon(14) Panathinaikos(5) Atromitos(13) Aris(4) Ionikos(11) Lamia(12) Giannina(6) Asteras Tripolis(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Lamia(12) Apollon(14) Atromitos(13) Panathinaikos(5) Asteras Tripolis(8) PAOK(3) AEK(2) Ionikos(11) Aris(4) OFI Crete(7) Olympiakos(1) Panetolikos(9) Giannina(6) Lamia(12)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -852,298 +852,298 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AEK,W D W L W W W W D L W W D W L</t>
-  </si>
-  <si>
-    <t>Apollon,L L L D D L W L D L D L</t>
-  </si>
-  <si>
-    <t>Aris,D L W W D W W L W L W W L D W</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,D L D L L W W D L D W L D W L</t>
-  </si>
-  <si>
-    <t>Atromitos,D L L L D L L D L W L W L L L</t>
-  </si>
-  <si>
-    <t>Giannina,W W D D D L L D W W L W W L L</t>
-  </si>
-  <si>
-    <t>Ionikos,L W D D L L W D L D L W D L L</t>
-  </si>
-  <si>
-    <t>Lamia,L L L D W L D D W L D L L D L</t>
-  </si>
-  <si>
-    <t>OFI Crete,D D D D L W D D W W W L D W</t>
-  </si>
-  <si>
-    <t>Olympiakos,D W W W D W W W W W W W W W W</t>
-  </si>
-  <si>
-    <t>Panathinaikos,W L L W D W L D L W W L W W</t>
-  </si>
-  <si>
-    <t>Panetolikos,D W L D L L L L L W L W D L W</t>
-  </si>
-  <si>
-    <t>PAOK,L W W W W D L W W L L L W W W</t>
-  </si>
-  <si>
-    <t>Volos NFC,W W W L W D L D L L L L L D</t>
-  </si>
-  <si>
-    <t>AEK,3 3 1 0 3 3 3 2 2 2 2 1 0 1 1,(27)</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 1 0 0 0 1 1 2 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 3 0 1 5 1 2 0 1 1 0 1 1,(17)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 0 0 0 1 1 2 1 0 1 6 0 0 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 1 0 1 1 0 0 2 0 2 2 4 0 0 1,(14)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 1 1 1 0 1 3 5 1 1 3 0 0,(19)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 1 0 0 1 1 2 1 0 1 1 3 2 0 0,(13)</t>
-  </si>
-  <si>
-    <t>Lamia,1 1 0 2 2 0 0 2 1 1 0 0 1 2 0,(13)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 1 2 0 0 2 2 2 1 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 2 4 2 0 2 2 2 1 3 2 3 1 3 1,(28)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 0 0 5 0 4 1 0 1 3 2 0 2 2,(24)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 2 1 2 1 1 1 1 0 1 0 2 2 0 2,(16)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 2 2 3 4 1 4 3 0 0 2 2 4 3,(31)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 3 3 1 2 4 1 1 1 0 1 1 2 2,(24)</t>
-  </si>
-  <si>
-    <t>AEK,0 3 0 2 1 0 1 1 2 3 1 0 0 0 2,(16)</t>
-  </si>
-  <si>
-    <t>Apollon,4 3 4 0 0 1 0 4 2 1 0 4,(23)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 0 1 0 0 1 2 1 5 0 0 1 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 2 0 1 1 1 1 2 1 0 0 3,(15)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 2 3 3 1 3 2 2 2 0 6 1 2 3 2,(32)</t>
-  </si>
-  <si>
-    <t>Giannina,0 0 0 1 1 2 1 1 0 0 2 0 2 4 2,(16)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 0 0 0 2 4 0 1 1 1 2 2 2 1 1,(20)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 1 2 1 1 0 2 0 3 0 1 2 2 1,(20)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 3 0 1 3 1 0 0 0 0 1 3 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 1 0 0 1 1 1 0 2 1 1 0 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 1 1 1 0 1 2 0 3 1 0 1 0 0,(11)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 2 2 3 2 5 2 3 0 2 1 2 1 1,(27)</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 1 0 1 4 2 1 1 2 1 3 1 0 2,(20)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 1 0 5 1 4 3 1 2 2 2 2 3 2,(29)</t>
-  </si>
-  <si>
-    <t>AEK,3 6 1 2 4 3 4 3 4 5 3 1 0 1 3,(43)</t>
-  </si>
-  <si>
-    <t>Apollon,4 4 5 0 0 1 1 5 4 1 0 5,(30)</t>
-  </si>
-  <si>
-    <t>Aris,0 1 1 4 0 1 6 3 3 5 1 1 1 2 1,(30)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 1 0 2 3 1 3 2 1 2 8 1 0 1 5,(30)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 3 3 4 2 3 2 4 2 2 8 5 2 3 3,(46)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 2 2 3 1 2 3 5 3 1 5 4 2,(35)</t>
-  </si>
-  <si>
-    <t>Ionikos,3 1 0 0 3 5 2 2 1 2 3 5 4 1 1,(33)</t>
-  </si>
-  <si>
-    <t>Lamia,3 3 1 4 3 1 0 4 1 4 0 1 3 4 1,(33)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 6 0 2 4 3 0 0 2 2 3 4 2 3,(31)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 3 5 2 0 3 3 3 1 5 3 4 1 3 1,(37)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 1 1 6 0 5 3 0 4 4 2 1 2 2,(35)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 3 3 4 4 3 6 3 3 1 2 3 4 1 3,(43)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 3 2 4 8 3 5 4 2 1 5 3 4 5,(51)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 4 3 6 3 8 4 2 3 2 3 3 5 4,(53)</t>
-  </si>
-  <si>
-    <t>AEK,3-0 3-3 1-0 2-0 1-3 3-0 1-3 2-1 2-2 2-3 1-2 1-0 0-0 0-1 1-2</t>
-  </si>
-  <si>
-    <t>Apollon,4-0 1-3 4-1 0-0 0-0 0-1 1-0 4-1 2-2 1-0 0-0 4-1</t>
-  </si>
-  <si>
-    <t>Aris,0-0 1-0 1-0 1-3 0-0 0-1 5-1 2-1 1-2 0-5 0-1 1-0 1-0 1-1 1-0</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0-0 0-1 0-0 0-2 2-1 0-1 2-1 1-1 0-1 1-1 6-2 1-0 0-0 1-0 3-2</t>
-  </si>
-  <si>
-    <t>Atromitos,0-0 1-2 3-0 1-3 1-1 3-0 0-2 2-2 2-0 2-0 6-2 4-1 2-0 0-3 2-1</t>
-  </si>
-  <si>
-    <t>Giannina,0-1 1-0 0-0 1-1 1-1 1-2 1-0 1-1 3-0 0-5 1-2 0-1 3-2 0-4 2-0</t>
-  </si>
-  <si>
-    <t>Ionikos,3-0 1-0 0-0 0-0 1-2 4-1 0-2 1-1 1-0 1-1 2-1 3-2 2-2 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Lamia,2-1 1-2 1-0 2-2 1-2 0-1 0-0 2-2 0-1 1-3 0-0 0-1 2-1 2-2 1-0</t>
-  </si>
-  <si>
-    <t>OFI Crete,0-0 3-3 0-0 1-1 1-3 1-2 0-0 0-0 2-0 0-2 2-1 1-3 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Olympiakos,0-0 1-2 4-1 0-2 0-0 1-2 2-1 1-2 1-0 2-3 2-1 1-3 1-0 0-3 1-0</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4-0 1-0 1-0 5-1 0-0 4-1 2-1 0-0 1-3 1-3 2-0 1-0 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Panetolikos,0-0 1-2 1-2 2-2 1-3 1-2 5-1 1-2 3-0 1-0 2-0 1-2 2-2 1-0 2-1</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 0-1 1-2 2-0 1-3 4-4 2-1 4-1 1-3 2-0 0-1 3-2 2-1 0-4 3-2</t>
-  </si>
-  <si>
-    <t>Volos NFC,2-1 1-3 3-0 5-1 2-1 4-4 1-3 1-1 1-2 0-2 2-1 1-2 3-2 2-2</t>
-  </si>
-  <si>
-    <t>AEK,3 0 1 -2 2 3 2 1 0 -1 1 1 0 1 -1,(11)</t>
-  </si>
-  <si>
-    <t>Apollon,-4 -2 -3 0 0 -1 1 -3 0 -1 0 -3,(-16)</t>
-  </si>
-  <si>
-    <t>Aris,0 -1 1 2 0 1 4 -1 1 -5 1 1 -1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,0 -1 0 -2 -1 1 1 0 -1 0 4 -1 0 1 -1,(0)</t>
-  </si>
-  <si>
-    <t>Atromitos,0 -1 -3 -2 0 -3 -2 0 -2 2 -4 3 -2 -3 -1,(-18)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 0 0 0 -1 -1 0 3 5 -1 1 1 -4 -2,(3)</t>
-  </si>
-  <si>
-    <t>Ionikos,-3 1 0 0 -1 -3 2 0 -1 0 -1 1 0 -1 -1,(-7)</t>
-  </si>
-  <si>
-    <t>Lamia,-1 -1 -1 0 1 -1 0 0 1 -2 0 -1 -1 0 -1,(-7)</t>
-  </si>
-  <si>
-    <t>OFI Crete,0 0 0 0 -2 1 0 0 2 2 1 -2 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Olympiakos,0 1 3 2 0 1 1 1 1 1 1 2 1 3 1,(19)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,4 -1 -1 4 0 3 -1 0 -2 2 2 -1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 1 -1 0 -2 -1 -4 -1 -3 1 -2 1 0 -1 1,(-11)</t>
-  </si>
-  <si>
-    <t>PAOK,-1 1 1 2 2 0 -1 3 2 -2 -1 -1 1 4 1,(11)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 2 3 -4 1 0 -2 0 -1 -2 -1 -1 -1 0,(-5)</t>
-  </si>
-  <si>
-    <t>AEK,Ionikos(11) OFI Crete(7) Lamia(12) PAOK(3) Panetolikos(9) Atromitos(13) Volos NFC(10) Aris(4) Apollon(14) Olympiakos(1) Giannina(6) Panathinaikos(5) Asteras Tripolis(8) Ionikos(11) OFI Crete(7)</t>
-  </si>
-  <si>
-    <t>Apollon,Panathinaikos(5) Volos NFC(10) Olympiakos(1) Ionikos(11) Aris(4) Asteras Tripolis(8) Giannina(6) PAOK(3) AEK(2) Panetolikos(9) Lamia(12) Atromitos(13)</t>
-  </si>
-  <si>
-    <t>Aris,OFI Crete(7) Ionikos(11) Panathinaikos(5) Atromitos(13) Apollon(14) Lamia(12) Panetolikos(9) AEK(2) Volos NFC(10) Giannina(6) PAOK(3) Asteras Tripolis(8) Olympiakos(1) OFI Crete(7) Ionikos(11)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,Panetolikos(9) PAOK(3) OFI Crete(7) Olympiakos(1) Volos NFC(10) Apollon(14) Panathinaikos(5) Giannina(6) Lamia(12) Ionikos(11) Atromitos(13) Aris(4) AEK(2) Panetolikos(9) PAOK(3)</t>
-  </si>
-  <si>
-    <t>Atromitos,Olympiakos(1) Panetolikos(9) Volos NFC(10) Aris(4) Giannina(6) AEK(2) Ionikos(11) Lamia(12) OFI Crete(7) PAOK(3) Asteras Tripolis(8) Apollon(14) Panathinaikos(5) Olympiakos(1) Panetolikos(9)</t>
-  </si>
-  <si>
-    <t>Giannina,PAOK(3) Panathinaikos(5) Ionikos(11) OFI Crete(7) Atromitos(13) Olympiakos(1) Apollon(14) Asteras Tripolis(8) Panetolikos(9) Aris(4) AEK(2) Lamia(12) Volos NFC(10) PAOK(3) Panathinaikos(5)</t>
-  </si>
-  <si>
-    <t>Ionikos,AEK(2) Aris(4) Giannina(6) Apollon(14) Lamia(12) Panathinaikos(5) Atromitos(13) Volos NFC(10) Olympiakos(1) Asteras Tripolis(8) OFI Crete(7) PAOK(3) Panetolikos(9) AEK(2) Aris(4)</t>
-  </si>
-  <si>
-    <t>Lamia,Volos NFC(10) Olympiakos(1) AEK(2) Panetolikos(9) Ionikos(11) Aris(4) OFI Crete(7) Atromitos(13) Asteras Tripolis(8) Panathinaikos(5) Apollon(14) Giannina(6) PAOK(3) Volos NFC(10) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Aris(4) AEK(2) Asteras Tripolis(8) Giannina(6) PAOK(3) Panetolikos(9) Lamia(12) Panathinaikos(5) Atromitos(13) Volos NFC(10) Ionikos(11) Olympiakos(1) Aris(4) AEK(2)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Atromitos(13) Lamia(12) Apollon(14) Asteras Tripolis(8) Panathinaikos(5) Giannina(6) PAOK(3) Panetolikos(9) Ionikos(11) AEK(2) Volos NFC(10) OFI Crete(7) Aris(4) Atromitos(13) Lamia(12)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Apollon(14) Giannina(6) Aris(4) Volos NFC(10) Olympiakos(1) Ionikos(11) Asteras Tripolis(8) OFI Crete(7) PAOK(3) Lamia(12) Panetolikos(9) AEK(2) Atromitos(13) Giannina(6)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Asteras Tripolis(8) Atromitos(13) PAOK(3) Lamia(12) AEK(2) OFI Crete(7) Aris(4) Olympiakos(1) Giannina(6) Apollon(14) Panathinaikos(5) Volos NFC(10) Ionikos(11) Asteras Tripolis(8) Atromitos(13)</t>
-  </si>
-  <si>
-    <t>PAOK,Giannina(6) Asteras Tripolis(8) Panetolikos(9) AEK(2) OFI Crete(7) Volos NFC(10) Olympiakos(1) Apollon(14) Panathinaikos(5) Atromitos(13) Aris(4) Ionikos(11) Lamia(12) Giannina(6) Asteras Tripolis(8)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Lamia(12) Apollon(14) Atromitos(13) Panathinaikos(5) Asteras Tripolis(8) PAOK(3) AEK(2) Ionikos(11) Aris(4) OFI Crete(7) Olympiakos(1) Panetolikos(9) Giannina(6) Lamia(12)</t>
+    <t>AEK,L W W D W L</t>
+  </si>
+  <si>
+    <t>Apollon,W L D L D L</t>
+  </si>
+  <si>
+    <t>Aris,L W W L D W</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,D W L D W L</t>
+  </si>
+  <si>
+    <t>Atromitos,W L W L L L</t>
+  </si>
+  <si>
+    <t>Giannina,W L W W L L</t>
+  </si>
+  <si>
+    <t>Ionikos,D L W D L L</t>
+  </si>
+  <si>
+    <t>Lamia,L D L L D L</t>
+  </si>
+  <si>
+    <t>OFI Crete,W W W L D W</t>
+  </si>
+  <si>
+    <t>Olympiakos,W W W W W W</t>
+  </si>
+  <si>
+    <t>Panathinaikos,L W W L W W</t>
+  </si>
+  <si>
+    <t>Panetolikos,W L W D L W</t>
+  </si>
+  <si>
+    <t>PAOK,L L L W W W</t>
+  </si>
+  <si>
+    <t>Volos NFC,L L L L L D</t>
+  </si>
+  <si>
+    <t>AEK,2 2 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Apollon,1 1 2 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Aris,0 1 1 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 6 0 0 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 2 4 0 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Giannina,5 1 1 3 0 0,(10)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 1 3 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Lamia,1 0 0 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 2 2 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Olympiakos,3 2 3 1 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1 3 2 0 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 0 2 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>PAOK,0 0 2 2 4 3,(11)</t>
+  </si>
+  <si>
+    <t>Volos NFC,1 0 1 1 2 2,(7)</t>
+  </si>
+  <si>
+    <t>AEK,3 1 0 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Apollon,0 4 2 1 0 4,(11)</t>
+  </si>
+  <si>
+    <t>Aris,5 0 0 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1 2 1 0 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 6 1 2 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Giannina,0 2 0 2 4 2,(10)</t>
+  </si>
+  <si>
+    <t>Ionikos,1 2 2 2 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Lamia,3 0 1 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>OFI Crete,0 0 1 3 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 1 1 0 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,3 1 0 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Panetolikos,0 2 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>PAOK,2 1 3 1 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Volos NFC,2 2 2 2 3 2,(13)</t>
+  </si>
+  <si>
+    <t>AEK,5 3 1 0 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Apollon,1 5 4 1 0 5,(16)</t>
+  </si>
+  <si>
+    <t>Aris,5 1 1 1 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 8 1 0 1 5,(17)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 8 5 2 3 3,(23)</t>
+  </si>
+  <si>
+    <t>Giannina,5 3 1 5 4 2,(20)</t>
+  </si>
+  <si>
+    <t>Ionikos,2 3 5 4 1 1,(16)</t>
+  </si>
+  <si>
+    <t>Lamia,4 0 1 3 4 1,(13)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 2 3 4 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Olympiakos,5 3 4 1 3 1,(17)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,4 4 2 1 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 2 3 4 1 3,(14)</t>
+  </si>
+  <si>
+    <t>PAOK,2 1 5 3 4 5,(20)</t>
+  </si>
+  <si>
+    <t>Volos NFC,3 2 3 3 5 4,(20)</t>
+  </si>
+  <si>
+    <t>AEK,2-3 1-2 1-0 0-0 0-1 1-2</t>
+  </si>
+  <si>
+    <t>Apollon,1-0 4-1 2-2 1-0 0-0 4-1</t>
+  </si>
+  <si>
+    <t>Aris,0-5 0-1 1-0 1-0 1-1 1-0</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,1-1 6-2 1-0 0-0 1-0 3-2</t>
+  </si>
+  <si>
+    <t>Atromitos,2-0 6-2 4-1 2-0 0-3 2-1</t>
+  </si>
+  <si>
+    <t>Giannina,0-5 1-2 0-1 3-2 0-4 2-0</t>
+  </si>
+  <si>
+    <t>Ionikos,1-1 2-1 3-2 2-2 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Lamia,1-3 0-0 0-1 2-1 2-2 1-0</t>
+  </si>
+  <si>
+    <t>OFI Crete,2-0 0-2 2-1 1-3 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Olympiakos,2-3 2-1 1-3 1-0 0-3 1-0</t>
+  </si>
+  <si>
+    <t>Panathinaikos,1-3 1-3 2-0 1-0 2-0 2-0</t>
+  </si>
+  <si>
+    <t>Panetolikos,1-0 2-0 1-2 2-2 1-0 2-1</t>
+  </si>
+  <si>
+    <t>PAOK,2-0 0-1 3-2 2-1 0-4 3-2</t>
+  </si>
+  <si>
+    <t>Volos NFC,1-2 0-2 2-1 1-2 3-2 2-2</t>
+  </si>
+  <si>
+    <t>AEK,-1 1 1 0 1 -1,(1)</t>
+  </si>
+  <si>
+    <t>Apollon,1 -3 0 -1 0 -3,(-6)</t>
+  </si>
+  <si>
+    <t>Aris,-5 1 1 -1 0 1,(-3)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,0 4 -1 0 1 -1,(3)</t>
+  </si>
+  <si>
+    <t>Atromitos,2 -4 3 -2 -3 -1,(-5)</t>
+  </si>
+  <si>
+    <t>Giannina,5 -1 1 1 -4 -2,(0)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 -1 1 0 -1 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Lamia,-2 0 -1 -1 0 -1,(-5)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 2 1 -2 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Olympiakos,1 1 2 1 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,-2 2 2 -1 2 2,(5)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 -2 1 0 -1 1,(0)</t>
+  </si>
+  <si>
+    <t>PAOK,-2 -1 -1 1 4 1,(2)</t>
+  </si>
+  <si>
+    <t>Volos NFC,-1 -2 -1 -1 -1 0,(-6)</t>
+  </si>
+  <si>
+    <t>AEK,Olympiakos(1) Giannina(6) Panathinaikos(5) Asteras Tripolis(8) Ionikos(11) OFI Crete(7)</t>
+  </si>
+  <si>
+    <t>Apollon,Giannina(6) PAOK(3) AEK(2) Panetolikos(9) Lamia(12) Atromitos(13)</t>
+  </si>
+  <si>
+    <t>Aris,Giannina(6) PAOK(3) Asteras Tripolis(8) Olympiakos(1) OFI Crete(7) Ionikos(11)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,Ionikos(11) Atromitos(13) Aris(4) AEK(2) Panetolikos(9) PAOK(3)</t>
+  </si>
+  <si>
+    <t>Atromitos,PAOK(3) Asteras Tripolis(8) Apollon(14) Panathinaikos(5) Olympiakos(1) Panetolikos(9)</t>
+  </si>
+  <si>
+    <t>Giannina,Aris(4) AEK(2) Lamia(12) Volos NFC(10) PAOK(3) Panathinaikos(5)</t>
+  </si>
+  <si>
+    <t>Ionikos,Asteras Tripolis(8) OFI Crete(7) PAOK(3) Panetolikos(9) AEK(2) Aris(4)</t>
+  </si>
+  <si>
+    <t>Lamia,Panathinaikos(5) Apollon(14) Giannina(6) PAOK(3) Volos NFC(10) Olympiakos(1)</t>
+  </si>
+  <si>
+    <t>OFI Crete,Atromitos(13) Volos NFC(10) Ionikos(11) Olympiakos(1) Aris(4) AEK(2)</t>
+  </si>
+  <si>
+    <t>Olympiakos,AEK(2) Volos NFC(10) OFI Crete(7) Aris(4) Atromitos(13) Lamia(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,PAOK(3) Lamia(12) Panetolikos(9) AEK(2) Atromitos(13) Giannina(6)</t>
+  </si>
+  <si>
+    <t>Panetolikos,Apollon(14) Panathinaikos(5) Volos NFC(10) Ionikos(11) Asteras Tripolis(8) Atromitos(13)</t>
+  </si>
+  <si>
+    <t>PAOK,Atromitos(13) Aris(4) Ionikos(11) Lamia(12) Giannina(6) Asteras Tripolis(8)</t>
+  </si>
+  <si>
+    <t>Volos NFC,Aris(4) OFI Crete(7) Olympiakos(1) Panetolikos(9) Giannina(6) Lamia(12)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -344,468 +344,468 @@
     <t>sum_g1_three_gs</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>suml6_g1_gc</t>
+  </si>
+  <si>
+    <t>sum_g1_zero_gc</t>
+  </si>
+  <si>
+    <t>sum_g1_one_gc</t>
+  </si>
+  <si>
+    <t>sum_g1_two_gc</t>
+  </si>
+  <si>
+    <t>sum_g1_three_gc</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm_negtwo</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm_negone</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm_zero</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm_posone</t>
+  </si>
+  <si>
+    <t>suml6_g1_wm_postwo</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>suml6_g1_tg</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>2.3966</t>
+  </si>
+  <si>
+    <t>1.9464</t>
+  </si>
+  <si>
+    <t>1.6207</t>
+  </si>
+  <si>
+    <t>1.8393</t>
+  </si>
+  <si>
+    <t>2.4286</t>
+  </si>
+  <si>
+    <t>1.6897</t>
+  </si>
+  <si>
+    <t>2.2143</t>
+  </si>
+  <si>
+    <t>2.0357</t>
+  </si>
+  <si>
+    <t>2.3571</t>
+  </si>
+  <si>
+    <t>2.1379</t>
+  </si>
+  <si>
+    <t>2.0862</t>
+  </si>
+  <si>
+    <t>2.4107</t>
+  </si>
+  <si>
+    <t>2.5172</t>
+  </si>
+  <si>
+    <t>2.7679</t>
+  </si>
+  <si>
+    <t>g1_hytotals</t>
+  </si>
+  <si>
+    <t>g1_aytotals</t>
+  </si>
+  <si>
+    <t>g1_totalyellows</t>
+  </si>
+  <si>
+    <t>g1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>63.5</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>128.5</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>127.5</t>
+  </si>
+  <si>
+    <t>129.5</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>102.5</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>119.5</t>
+  </si>
+  <si>
+    <t>133.5</t>
+  </si>
+  <si>
+    <t>124.5</t>
+  </si>
+  <si>
+    <t>4.431</t>
+  </si>
+  <si>
+    <t>4.8214</t>
+  </si>
+  <si>
+    <t>4.3966</t>
+  </si>
+  <si>
+    <t>4.625</t>
+  </si>
+  <si>
+    <t>3.7857</t>
+  </si>
+  <si>
+    <t>3.5345</t>
+  </si>
+  <si>
+    <t>4.2143</t>
+  </si>
+  <si>
+    <t>3.8929</t>
+  </si>
+  <si>
+    <t>4.5536</t>
+  </si>
+  <si>
+    <t>3.1897</t>
+  </si>
+  <si>
+    <t>4.2679</t>
+  </si>
+  <si>
+    <t>4.6034</t>
+  </si>
+  <si>
+    <t>4.4464</t>
+  </si>
+  <si>
+    <t>g1_hrtotals</t>
+  </si>
+  <si>
+    <t>g1_artotals</t>
+  </si>
+  <si>
+    <t>g1_totalreds</t>
+  </si>
+  <si>
+    <t>g1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>0.2241</t>
+  </si>
+  <si>
+    <t>0.3036</t>
+  </si>
+  <si>
+    <t>0.1724</t>
+  </si>
+  <si>
+    <t>0.1786</t>
+  </si>
+  <si>
+    <t>0.2321</t>
+  </si>
+  <si>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.1071</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.1429</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>g1_un05</t>
+  </si>
+  <si>
+    <t>g1_ov05</t>
+  </si>
+  <si>
+    <t>g1_un15</t>
+  </si>
+  <si>
+    <t>g1_ov15</t>
+  </si>
+  <si>
+    <t>g1_un25</t>
+  </si>
+  <si>
+    <t>g1_ov25</t>
+  </si>
+  <si>
+    <t>g1_un35</t>
+  </si>
+  <si>
+    <t>g1_ov35</t>
+  </si>
+  <si>
+    <t>g1_un45</t>
+  </si>
+  <si>
+    <t>g1_ov45</t>
+  </si>
+  <si>
+    <t>g1_un55</t>
+  </si>
+  <si>
+    <t>g1_ov55</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>suml6_g1_gc</t>
-  </si>
-  <si>
-    <t>sum_g1_zero_gc</t>
-  </si>
-  <si>
-    <t>sum_g1_one_gc</t>
-  </si>
-  <si>
-    <t>sum_g1_two_gc</t>
-  </si>
-  <si>
-    <t>sum_g1_three_gc</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm_negtwo</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm_negone</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm_zero</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm_posone</t>
-  </si>
-  <si>
-    <t>suml6_g1_wm_postwo</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>suml6_g1_tg</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>40.5</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>54.5</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>67.5</t>
-  </si>
-  <si>
-    <t>77.5</t>
-  </si>
-  <si>
-    <t>2.3966</t>
-  </si>
-  <si>
-    <t>1.9464</t>
-  </si>
-  <si>
-    <t>1.6207</t>
-  </si>
-  <si>
-    <t>1.8393</t>
-  </si>
-  <si>
-    <t>2.4286</t>
-  </si>
-  <si>
-    <t>1.6897</t>
-  </si>
-  <si>
-    <t>2.2143</t>
-  </si>
-  <si>
-    <t>2.0357</t>
-  </si>
-  <si>
-    <t>2.3571</t>
-  </si>
-  <si>
-    <t>2.1379</t>
-  </si>
-  <si>
-    <t>2.0862</t>
-  </si>
-  <si>
-    <t>2.4107</t>
-  </si>
-  <si>
-    <t>2.5172</t>
-  </si>
-  <si>
-    <t>2.7679</t>
-  </si>
-  <si>
-    <t>g1_hytotals</t>
-  </si>
-  <si>
-    <t>g1_aytotals</t>
-  </si>
-  <si>
-    <t>g1_totalyellows</t>
-  </si>
-  <si>
-    <t>g1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>63.5</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>80.5</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>66.5</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>57.5</t>
-  </si>
-  <si>
-    <t>70.5</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>128.5</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>127.5</t>
-  </si>
-  <si>
-    <t>129.5</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>102.5</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>92.5</t>
-  </si>
-  <si>
-    <t>119.5</t>
-  </si>
-  <si>
-    <t>133.5</t>
-  </si>
-  <si>
-    <t>124.5</t>
-  </si>
-  <si>
-    <t>4.431</t>
-  </si>
-  <si>
-    <t>4.8214</t>
-  </si>
-  <si>
-    <t>4.3966</t>
-  </si>
-  <si>
-    <t>4.625</t>
-  </si>
-  <si>
-    <t>3.7857</t>
-  </si>
-  <si>
-    <t>3.5345</t>
-  </si>
-  <si>
-    <t>4.2143</t>
-  </si>
-  <si>
-    <t>3.8929</t>
-  </si>
-  <si>
-    <t>4.5536</t>
-  </si>
-  <si>
-    <t>3.1897</t>
-  </si>
-  <si>
-    <t>4.2679</t>
-  </si>
-  <si>
-    <t>4.6034</t>
-  </si>
-  <si>
-    <t>4.4464</t>
-  </si>
-  <si>
-    <t>g1_hrtotals</t>
-  </si>
-  <si>
-    <t>g1_artotals</t>
-  </si>
-  <si>
-    <t>g1_totalreds</t>
-  </si>
-  <si>
-    <t>g1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>0.2241</t>
-  </si>
-  <si>
-    <t>0.3036</t>
-  </si>
-  <si>
-    <t>0.1724</t>
-  </si>
-  <si>
-    <t>0.1786</t>
-  </si>
-  <si>
-    <t>0.2321</t>
-  </si>
-  <si>
-    <t>0.0345</t>
-  </si>
-  <si>
-    <t>0.2857</t>
-  </si>
-  <si>
-    <t>0.1071</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.1429</t>
-  </si>
-  <si>
-    <t>0.0172</t>
-  </si>
-  <si>
-    <t>g1_un05</t>
-  </si>
-  <si>
-    <t>g1_ov05</t>
-  </si>
-  <si>
-    <t>g1_un15</t>
-  </si>
-  <si>
-    <t>g1_ov15</t>
-  </si>
-  <si>
-    <t>g1_un25</t>
-  </si>
-  <si>
-    <t>g1_ov25</t>
-  </si>
-  <si>
-    <t>g1_un35</t>
-  </si>
-  <si>
-    <t>g1_ov35</t>
-  </si>
-  <si>
-    <t>g1_un45</t>
-  </si>
-  <si>
-    <t>g1_ov45</t>
-  </si>
-  <si>
-    <t>g1_un55</t>
-  </si>
-  <si>
-    <t>g1_ov55</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Group.1</t>
   </si>
   <si>
@@ -1169,46 +1169,46 @@
     <t>Volos NFC,L D L D L D</t>
   </si>
   <si>
-    <t>AEK,1 3 2 1 2 0,(9)</t>
-  </si>
-  <si>
-    <t>Apollon,0 0 0 0 0 1,(1)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 3 2 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 1 2 2 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,3 2 2 2 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Giannina,1 1 2 2 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Ionikos,2 0 0 4 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>OFI Crete,1 2 3 2 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Olympiakos,3 1 2 5 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 0 2 3 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 0 1 1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>PAOK,3 1 2 1 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 0 1 0 0 0,(2)</t>
+    <t>AEK,0 1 2 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Apollon,2 0 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Aris,3 2 2 1 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis,2 0 1 1 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Atromitos,0 2 2 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Giannina,0 1 0 0 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Ionikos,0 4 1 1 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Lamia,1 0 0 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>OFI Crete,2 0 0 2 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Olympiakos,2 5 1 2 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Panathinaikos,0 3 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Panetolikos,1 1 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>PAOK,1 1 2 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Volos NFC,0 0 1 0 0 2,(3)</t>
   </si>
   <si>
     <t>AEK,3 1 1 1 1 1,(8)</t>
@@ -5287,7 +5287,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -5460,7 +5460,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -5592,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -5636,7 +5636,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
@@ -5680,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -5777,7 +5777,7 @@
         <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         <v>271</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
         <v>272</v>
@@ -12714,7 +12714,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>665</v>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>665</v>
@@ -21987,7 +21987,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
         <v>665</v>
@@ -22830,7 +22830,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
         <v>665</v>
@@ -23673,7 +23673,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>665</v>
@@ -24797,7 +24797,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
         <v>665</v>
@@ -26202,7 +26202,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
         <v>665</v>
@@ -26483,7 +26483,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>665</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>665</v>
@@ -27888,7 +27888,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
         <v>665</v>
@@ -28450,7 +28450,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
         <v>665</v>
@@ -29574,7 +29574,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
         <v>665</v>
@@ -30698,7 +30698,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
         <v>665</v>
@@ -60220,31 +60220,31 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -60253,61 +60253,61 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X2" t="s">
-        <v>106</v>
-      </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" t="s">
         <v>15</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -60318,31 +60318,31 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -60351,61 +60351,61 @@
         <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
         <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="s">
         <v>106</v>
       </c>
-      <c r="R3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>19</v>
-      </c>
       <c r="AE3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="s">
         <v>61</v>
@@ -60422,13 +60422,13 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>61</v>
@@ -60437,10 +60437,10 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -60449,67 +60449,67 @@
         <v>61</v>
       </c>
       <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AA4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" t="s">
-        <v>106</v>
-      </c>
-      <c r="T4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U4" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>106</v>
-      </c>
       <c r="AB4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="s">
         <v>12</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -60526,88 +60526,88 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
         <v>61</v>
       </c>
       <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" t="s">
-        <v>106</v>
-      </c>
-      <c r="X5" t="s">
-        <v>106</v>
-      </c>
       <c r="Y5" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA5" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="s">
         <v>10</v>
@@ -60621,31 +60621,31 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
       </c>
       <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
         <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -60654,61 +60654,61 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
         <v>61</v>
       </c>
       <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
-        <v>106</v>
-      </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="X6" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="s">
         <v>11</v>
@@ -60728,91 +60728,91 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="S7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" t="s">
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="s">
         <v>11</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T7" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V7" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" t="s">
-        <v>106</v>
-      </c>
-      <c r="X7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>106</v>
-      </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -60823,97 +60823,97 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" t="s">
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Z8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" t="s">
+      <c r="AA8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" t="s">
-        <v>106</v>
-      </c>
-      <c r="W8" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>106</v>
-      </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="AD8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="s">
         <v>13</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -60927,7 +60927,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -60936,82 +60936,82 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>61</v>
       </c>
       <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
       </c>
       <c r="N9" t="s">
         <v>61</v>
       </c>
       <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
         <v>61</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" t="s">
-        <v>106</v>
-      </c>
-      <c r="R9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S9" t="s">
-        <v>106</v>
-      </c>
-      <c r="T9" t="s">
-        <v>106</v>
-      </c>
-      <c r="U9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V9" t="s">
-        <v>106</v>
-      </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AB9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AC9" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AD9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="s">
         <v>61</v>
@@ -61025,97 +61025,97 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
       </c>
       <c r="Q10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AB10" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -61129,94 +61129,94 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
       </c>
       <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
         <v>10</v>
       </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
       <c r="P11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="s">
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="U11" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="X11" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -61230,94 +61230,94 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="P12" t="s">
         <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
       </c>
       <c r="Q12" t="s">
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="W12" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="X12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AD12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -61331,13 +61331,13 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -61346,79 +61346,79 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
         <v>61</v>
       </c>
       <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
         <v>61</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" t="s">
         <v>10</v>
       </c>
-      <c r="N13" t="s">
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" t="s">
         <v>10</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Z13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
         <v>61</v>
       </c>
-      <c r="P13" t="s">
+      <c r="AB13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
         <v>10</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>106</v>
-      </c>
-      <c r="R13" t="s">
-        <v>106</v>
-      </c>
-      <c r="S13" t="s">
-        <v>106</v>
-      </c>
-      <c r="T13" t="s">
-        <v>106</v>
-      </c>
-      <c r="U13" t="s">
-        <v>106</v>
-      </c>
-      <c r="V13" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" t="s">
-        <v>106</v>
-      </c>
-      <c r="X13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -61432,94 +61432,94 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
       <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
+      <c r="V14" t="s">
         <v>11</v>
       </c>
-      <c r="N14" t="s">
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Y14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" t="s">
         <v>10</v>
       </c>
-      <c r="P14" t="s">
+      <c r="AA14" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V14" t="s">
-        <v>106</v>
-      </c>
-      <c r="W14" t="s">
-        <v>106</v>
-      </c>
-      <c r="X14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>106</v>
-      </c>
       <c r="AB14" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s">
         <v>17</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -61536,22 +61536,22 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -61563,64 +61563,64 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
         <v>61</v>
       </c>
-      <c r="P15" t="s">
+      <c r="U15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" t="s">
-        <v>106</v>
-      </c>
-      <c r="R15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" t="s">
-        <v>106</v>
-      </c>
-      <c r="T15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U15" t="s">
-        <v>106</v>
-      </c>
-      <c r="V15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" t="s">
-        <v>106</v>
-      </c>
-      <c r="X15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>106</v>
-      </c>
       <c r="Z15" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AA15" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AC15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AD15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="s">
         <v>13</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -61720,19 +61720,19 @@
         <v>100</v>
       </c>
       <c r="AC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>111</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -63246,22 +63246,22 @@
         <v>100</v>
       </c>
       <c r="AC1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" t="s">
         <v>113</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>117</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -63281,7 +63281,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -63299,7 +63299,7 @@
         <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -63314,34 +63314,34 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T2" t="s">
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W2" t="s">
         <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>
       </c>
       <c r="Z2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA2" t="s">
         <v>61</v>
@@ -63376,13 +63376,13 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -63391,67 +63391,67 @@
         <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
         <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
         <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q3" t="s">
         <v>61</v>
       </c>
       <c r="R3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
         <v>121</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>121</v>
       </c>
-      <c r="T3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" t="s">
-        <v>122</v>
-      </c>
       <c r="V3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W3" t="s">
         <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y3" t="s">
         <v>10</v>
       </c>
       <c r="Z3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC3" t="s">
         <v>67</v>
@@ -63483,7 +63483,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -63501,13 +63501,13 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -63516,7 +63516,7 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P4" t="s">
         <v>61</v>
@@ -63525,7 +63525,7 @@
         <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" t="s">
         <v>61</v>
@@ -63540,10 +63540,10 @@
         <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y4" t="s">
         <v>61</v>
@@ -63587,16 +63587,16 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -63608,7 +63608,7 @@
         <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -63617,7 +63617,7 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
         <v>61</v>
@@ -63626,7 +63626,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
         <v>10</v>
@@ -63644,22 +63644,22 @@
         <v>11</v>
       </c>
       <c r="W5" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" t="s">
         <v>121</v>
-      </c>
-      <c r="X5" t="s">
-        <v>122</v>
       </c>
       <c r="Y5" t="s">
         <v>11</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC5" t="s">
         <v>61</v>
@@ -63691,61 +63691,61 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
       </c>
       <c r="G6" t="s">
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s">
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" t="s">
         <v>120</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>121</v>
       </c>
       <c r="R6" t="s">
         <v>61</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U6" t="s">
         <v>11</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W6" t="s">
         <v>61</v>
@@ -63754,7 +63754,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s">
         <v>11</v>
@@ -63763,7 +63763,7 @@
         <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC6" t="s">
         <v>65</v>
@@ -63807,10 +63807,10 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -63822,7 +63822,7 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
         <v>10</v>
@@ -63831,10 +63831,10 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -63846,13 +63846,13 @@
         <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V7" t="s">
         <v>11</v>
       </c>
       <c r="W7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X7" t="s">
         <v>10</v>
@@ -63861,7 +63861,7 @@
         <v>11</v>
       </c>
       <c r="Z7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA7" t="s">
         <v>10</v>
@@ -63896,7 +63896,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -63908,10 +63908,10 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -63920,13 +63920,13 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
         <v>10</v>
@@ -63935,19 +63935,19 @@
         <v>61</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U8" t="s">
         <v>10</v>
@@ -63956,7 +63956,7 @@
         <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
         <v>10</v>
@@ -63971,7 +63971,7 @@
         <v>61</v>
       </c>
       <c r="AB8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC8" t="s">
         <v>64</v>
@@ -64000,13 +64000,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -64015,7 +64015,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
@@ -64027,25 +64027,25 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s">
         <v>61</v>
       </c>
       <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
         <v>121</v>
-      </c>
-      <c r="R9" t="s">
-        <v>122</v>
       </c>
       <c r="S9" t="s">
         <v>10</v>
@@ -64057,25 +64057,25 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="s">
         <v>121</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>122</v>
       </c>
       <c r="AC9" t="s">
         <v>66</v>
@@ -64116,7 +64116,7 @@
         <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -64137,7 +64137,7 @@
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
         <v>61</v>
@@ -64146,7 +64146,7 @@
         <v>10</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
@@ -64155,13 +64155,13 @@
         <v>12</v>
       </c>
       <c r="T10" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10" t="s">
         <v>120</v>
-      </c>
-      <c r="U10" t="s">
-        <v>122</v>
-      </c>
-      <c r="V10" t="s">
-        <v>121</v>
       </c>
       <c r="W10" t="s">
         <v>10</v>
@@ -64176,7 +64176,7 @@
         <v>61</v>
       </c>
       <c r="AA10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB10" t="s">
         <v>11</v>
@@ -64283,7 +64283,7 @@
         <v>13</v>
       </c>
       <c r="AB11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC11" t="s">
         <v>59</v>
@@ -64315,10 +64315,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -64330,13 +64330,13 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
@@ -64345,7 +64345,7 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
         <v>11</v>
@@ -64357,7 +64357,7 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S12" t="s">
         <v>61</v>
@@ -64366,13 +64366,13 @@
         <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
         <v>11</v>
@@ -64381,7 +64381,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s">
         <v>12</v>
@@ -64422,31 +64422,31 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
         <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
         <v>119</v>
-      </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>120</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s">
         <v>10</v>
@@ -64455,13 +64455,13 @@
         <v>61</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q13" t="s">
         <v>10</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s">
         <v>10</v>
@@ -64470,13 +64470,13 @@
         <v>11</v>
       </c>
       <c r="U13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s">
         <v>61</v>
@@ -64520,7 +64520,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -64538,7 +64538,7 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -64547,13 +64547,13 @@
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
         <v>10</v>
@@ -64633,7 +64633,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -64642,25 +64642,25 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
       </c>
       <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
         <v>121</v>
       </c>
-      <c r="L15" t="s">
-        <v>122</v>
-      </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P15" t="s">
         <v>61</v>
@@ -64669,13 +64669,13 @@
         <v>11</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S15" t="s">
         <v>10</v>
       </c>
       <c r="T15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U15" t="s">
         <v>10</v>
@@ -64687,16 +64687,16 @@
         <v>11</v>
       </c>
       <c r="X15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z15" t="s">
         <v>61</v>
       </c>
       <c r="AA15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="s">
         <v>61</v>
@@ -64817,7 +64817,7 @@
         <v>100</v>
       </c>
       <c r="AC1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -64906,7 +64906,7 @@
         <v>12</v>
       </c>
       <c r="AC2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -64995,7 +64995,7 @@
         <v>11</v>
       </c>
       <c r="AC3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -65084,7 +65084,7 @@
         <v>12</v>
       </c>
       <c r="AC4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -65173,7 +65173,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -65262,7 +65262,7 @@
         <v>11</v>
       </c>
       <c r="AC6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -65351,7 +65351,7 @@
         <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -65440,7 +65440,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -65529,7 +65529,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -65618,7 +65618,7 @@
         <v>11</v>
       </c>
       <c r="AC10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -65707,7 +65707,7 @@
         <v>12</v>
       </c>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -65796,7 +65796,7 @@
         <v>11</v>
       </c>
       <c r="AC12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -65974,7 +65974,7 @@
         <v>11</v>
       </c>
       <c r="AC14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -66063,7 +66063,7 @@
         <v>61</v>
       </c>
       <c r="AC15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -66091,7 +66091,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
@@ -66106,7 +66106,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -66121,22 +66121,22 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>142</v>
-      </c>
-      <c r="T1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -66144,7 +66144,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -66209,7 +66209,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -66274,7 +66274,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -66339,7 +66339,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -66404,7 +66404,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -66440,7 +66440,7 @@
         <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S6" t="s">
         <v>39</v>
@@ -66469,7 +66469,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -66534,7 +66534,7 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -66564,7 +66564,7 @@
         <v>157</v>
       </c>
       <c r="R8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
         <v>39</v>
@@ -66599,7 +66599,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -66664,7 +66664,7 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -66729,7 +66729,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -66750,7 +66750,7 @@
         <v>158</v>
       </c>
       <c r="R11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
@@ -66794,7 +66794,7 @@
         <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
         <v>11</v>
@@ -66859,7 +66859,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
@@ -66924,7 +66924,7 @@
         <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -66936,7 +66936,7 @@
         <v>153</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
@@ -66989,7 +66989,7 @@
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s">
         <v>152</v>
@@ -67032,7 +67032,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
@@ -67047,7 +67047,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -67062,7 +67062,7 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P1" t="s">
         <v>185</v>
@@ -67074,7 +67074,7 @@
         <v>187</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T1" t="s">
         <v>188</v>
@@ -67085,7 +67085,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -67150,7 +67150,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -67215,7 +67215,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -67280,7 +67280,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -67345,7 +67345,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -67378,7 +67378,7 @@
         <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R6" t="s">
         <v>210</v>
@@ -67410,7 +67410,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -67437,7 +67437,7 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q7" t="s">
         <v>201</v>
@@ -67475,7 +67475,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -67540,7 +67540,7 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
         <v>191</v>
@@ -67605,7 +67605,7 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -67670,7 +67670,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -67735,7 +67735,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -67800,7 +67800,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -67865,7 +67865,7 @@
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>18</v>
@@ -67930,7 +67930,7 @@
         <v>11</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s">
         <v>199</v>
@@ -67973,7 +67973,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
@@ -67988,7 +67988,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -68003,7 +68003,7 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P1" t="s">
         <v>231</v>
@@ -68015,7 +68015,7 @@
         <v>233</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T1" t="s">
         <v>234</v>
@@ -68026,7 +68026,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -68091,7 +68091,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -68156,7 +68156,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -68221,7 +68221,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -68286,7 +68286,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>61</v>
@@ -68351,7 +68351,7 @@
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>61</v>
@@ -68416,7 +68416,7 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -68481,7 +68481,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
@@ -68546,7 +68546,7 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -68611,7 +68611,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -68676,7 +68676,7 @@
         <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
         <v>61</v>
@@ -68741,7 +68741,7 @@
         <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
         <v>61</v>
@@ -68806,7 +68806,7 @@
         <v>61</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>61</v>
@@ -68871,7 +68871,7 @@
         <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s">
         <v>13</v>

--- a/Divisions/G1.xlsx
+++ b/Divisions/G1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="368">
   <si>
     <t>Team</t>
   </si>
@@ -1127,321 +1126,6 @@
   </si>
   <si>
     <t>25.81%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>AEK,W D D W L L</t>
-  </si>
-  <si>
-    <t>Apollon,L W W D L D</t>
-  </si>
-  <si>
-    <t>Aris,D D W L W D</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,W L L W D W</t>
-  </si>
-  <si>
-    <t>Atromitos,L W D D L L</t>
-  </si>
-  <si>
-    <t>Giannina,D L D W D L</t>
-  </si>
-  <si>
-    <t>Ionikos,D L W L L W</t>
-  </si>
-  <si>
-    <t>Lamia,W L W W W D</t>
-  </si>
-  <si>
-    <t>OFI Crete,W L L W D W</t>
-  </si>
-  <si>
-    <t>Olympiakos,W D D W L L</t>
-  </si>
-  <si>
-    <t>Panathinaikos,L W W W W W</t>
-  </si>
-  <si>
-    <t>Panetolikos,D D D D W L</t>
-  </si>
-  <si>
-    <t>PAOK,W D L L L W</t>
-  </si>
-  <si>
-    <t>Volos NFC,L W L D L D</t>
-  </si>
-  <si>
-    <t>AEK,3 1 0 3 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Apollon,0 1 2 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 0 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,2 0 0 1 2 3,(8)</t>
-  </si>
-  <si>
-    <t>Atromitos,1 2 0 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Giannina,0 2 1 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 2 5 0 0 3,(10)</t>
-  </si>
-  <si>
-    <t>Lamia,3 1 3 1 1 0,(9)</t>
-  </si>
-  <si>
-    <t>OFI Crete,2 0 0 2 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Olympiakos,2 1 1 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,0 1 2 1 4 3,(11)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 0 0 0 2 0,(2)</t>
-  </si>
-  <si>
-    <t>PAOK,1 1 1 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Volos NFC,1 3 0 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>AEK,2 1 0 0 3 3,(9)</t>
-  </si>
-  <si>
-    <t>Apollon,1 0 1 1 5 0,(8)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 0 1 2 2,(5)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 1 2 0 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,2 0 0 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Giannina,0 3 1 0 0 3,(7)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 3 1 3 4 1,(12)</t>
-  </si>
-  <si>
-    <t>Lamia,2 2 2 0 0 0,(6)</t>
-  </si>
-  <si>
-    <t>OFI Crete,1 3 1 0 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 1 1 2 2 5,(12)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 0 1 0 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 0 0 0 1 2,(3)</t>
-  </si>
-  <si>
-    <t>PAOK,0 1 2 1 3 0,(7)</t>
-  </si>
-  <si>
-    <t>Volos NFC,2 0 1 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>AEK,5 2 0 3 5 5,(20)</t>
-  </si>
-  <si>
-    <t>Apollon,1 1 3 2 6 0,(13)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 1 5 4,(11)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,3 1 2 1 4 3,(14)</t>
-  </si>
-  <si>
-    <t>Atromitos,3 2 0 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Giannina,0 5 2 1 0 3,(11)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 5 6 3 4 4,(22)</t>
-  </si>
-  <si>
-    <t>Lamia,5 3 5 1 1 0,(15)</t>
-  </si>
-  <si>
-    <t>OFI Crete,3 3 1 2 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Olympiakos,3 2 2 5 3 5,(20)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1 1 3 1 4 5,(15)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 0 0 0 3 2,(5)</t>
-  </si>
-  <si>
-    <t>PAOK,1 2 3 1 4 2,(13)</t>
-  </si>
-  <si>
-    <t>Volos NFC,3 3 1 2 1 2,(12)</t>
-  </si>
-  <si>
-    <t>AEK,2-3 1-1 0-0 3-0 3-2 2-3</t>
-  </si>
-  <si>
-    <t>Apollon,1-0 1-0 1-2 1-1 5-1 0-0</t>
-  </si>
-  <si>
-    <t>Aris,0-0 0-0 1-0 0-1 3-2 2-2</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1-2 1-0 0-2 0-1 2-2 0-3</t>
-  </si>
-  <si>
-    <t>Atromitos,2-1 0-2 0-0 1-1 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Giannina,0-0 2-3 1-1 1-0 0-0 0-3</t>
-  </si>
-  <si>
-    <t>Ionikos,0-0 3-2 5-1 3-0 4-0 3-1</t>
-  </si>
-  <si>
-    <t>Lamia,2-3 1-2 2-3 0-1 0-1 0-0</t>
-  </si>
-  <si>
-    <t>OFI Crete,1-2 3-0 0-1 0-2 0-0 1-0</t>
-  </si>
-  <si>
-    <t>Olympiakos,1-2 1-1 1-1 3-2 1-2 5-0</t>
-  </si>
-  <si>
-    <t>Panathinaikos,1-0 1-0 1-2 0-1 4-0 2-3</t>
-  </si>
-  <si>
-    <t>Panetolikos,0-0 0-0 0-0 0-0 1-2 2-0</t>
-  </si>
-  <si>
-    <t>PAOK,0-1 1-1 1-2 0-1 3-1 2-0</t>
-  </si>
-  <si>
-    <t>Volos NFC,2-1 3-0 1-0 1-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>AEK,1 0 0 3 -1 -1,(2)</t>
-  </si>
-  <si>
-    <t>Apollon,-1 1 1 0 -4 0,(-3)</t>
-  </si>
-  <si>
-    <t>Aris,0 0 1 -1 1 0,(1)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,1 -1 -2 1 0 3,(2)</t>
-  </si>
-  <si>
-    <t>Atromitos,-1 2 0 0 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Giannina,0 -1 0 1 0 -3,(-3)</t>
-  </si>
-  <si>
-    <t>Ionikos,0 -1 4 -3 -4 2,(-2)</t>
-  </si>
-  <si>
-    <t>Lamia,1 -1 1 1 1 0,(3)</t>
-  </si>
-  <si>
-    <t>OFI Crete,1 -3 -1 2 0 1,(0)</t>
-  </si>
-  <si>
-    <t>Olympiakos,1 0 0 1 -1 -5,(-4)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,-1 1 1 1 4 1,(7)</t>
-  </si>
-  <si>
-    <t>Panetolikos,0 0 0 0 1 -2,(-1)</t>
-  </si>
-  <si>
-    <t>PAOK,1 0 -1 -1 -2 2,(-1)</t>
-  </si>
-  <si>
-    <t>Volos NFC,-1 3 -1 0 -1 0,(0)</t>
-  </si>
-  <si>
-    <t>AEK,Giannina(6) PAOK(2) Panathinaikos(4) Giannina(6) Aris(3) Olympiakos(1)</t>
-  </si>
-  <si>
-    <t>Apollon,Atromitos(12) Panetolikos(11) OFI Crete(8) Volos NFC(10) Ionikos(7) Lamia(13)</t>
-  </si>
-  <si>
-    <t>Aris,Panathinaikos(4) Giannina(6) PAOK(2) Olympiakos(1) AEK(5) Asteras Tripolis(9)</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis,AEK(5) Panathinaikos(4) Lamia(13) PAOK(2) Apollon Apollon() Giannina(6)</t>
-  </si>
-  <si>
-    <t>Atromitos,AEK(5) Volos NFC(10) Panetolikos(11) OFI Crete(8) Ionikos(7) OFI Crete(8)</t>
-  </si>
-  <si>
-    <t>Giannina,Panathinaikos(4) AEK(5) Volos NFC(10) PAOK(2) Lamia(13) Aris(3)</t>
-  </si>
-  <si>
-    <t>Ionikos,Aris(3) Olympiakos(1) Apollon(14) AEK(5) Panathinaikos(4) Panetolikos(11)</t>
-  </si>
-  <si>
-    <t>Lamia,OFI Crete(8) OFI Crete(8) Asteras Tripolis(9) Lamia(13) Atromitos(12) Atromitos(12)</t>
-  </si>
-  <si>
-    <t>OFI Crete,Panetolikos(11) Volos NFC(10) Panetolikos(11) Asteras Tripolis(9) Apollon(14) Asteras Tripolis(9)</t>
-  </si>
-  <si>
-    <t>Olympiakos,Lamia(13) AEK(5) Atromitos(12) Giannina(6) Panathinaikos(4) Volos NFC(10)</t>
-  </si>
-  <si>
-    <t>Panathinaikos,Panathinaikos(4) Aris(3) PAOK(2) Aris(3) Giannina(6) AEK(5)</t>
-  </si>
-  <si>
-    <t>Panetolikos,Giannina(6) Asteras Tripolis(9) Volos NFC(10) AEK(5) Olympiakos(1) PAOK(2)</t>
-  </si>
-  <si>
-    <t>PAOK,OFI Crete(8) AEK(5) Olympiakos(1) Aris(3) Ionikos(7) Panathinaikos(4)</t>
-  </si>
-  <si>
-    <t>Volos NFC,Panathinaikos(4) Lamia(13) Aris(3) Atromitos(12) Giannina(6) Olympiakos(1)</t>
   </si>
 </sst>
 </file>
@@ -3857,407 +3541,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F8" t="s">
-        <v>437</v>
-      </c>
-      <c r="G8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G9" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" t="s">
-        <v>454</v>
-      </c>
-      <c r="H11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" t="s">
-        <v>413</v>
-      </c>
-      <c r="E12" t="s">
-        <v>427</v>
-      </c>
-      <c r="F12" t="s">
-        <v>441</v>
-      </c>
-      <c r="G12" t="s">
-        <v>455</v>
-      </c>
-      <c r="H12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D13" t="s">
-        <v>414</v>
-      </c>
-      <c r="E13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F13" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" t="s">
-        <v>456</v>
-      </c>
-      <c r="H13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F14" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14" t="s">
-        <v>457</v>
-      </c>
-      <c r="H14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D15" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" t="s">
-        <v>430</v>
-      </c>
-      <c r="F15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G15" t="s">
-        <v>458</v>
-      </c>
-      <c r="H15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
